--- a/MAPS_BASE/WORLD.xlsx
+++ b/MAPS_BASE/WORLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/MAPS_BASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DAED01-718A-6045-95C5-04570FE153C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCFFC0-285D-844D-804B-1EBE9ECD8BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="2100" windowWidth="39300" windowHeight="18240" activeTab="1" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
+    <workbookView xWindow="8440" yWindow="2100" windowWidth="39300" windowHeight="18240" activeTab="2" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="239">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>city</t>
   </si>
   <si>
     <t>Oceania</t>
@@ -50,9 +47,6 @@
     <t>America</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
   </si>
   <si>
     <t>id_country</t>
-  </si>
-  <si>
-    <t>continent</t>
   </si>
   <si>
     <t xml:space="preserve">iso </t>
@@ -751,6 +742,9 @@
   <si>
     <t>Coriza</t>
   </si>
+  <si>
+    <t>en</t>
+  </si>
 </sst>
 </file>
 
@@ -1121,7 +1115,7 @@
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1136,25 +1130,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1162,25 +1156,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1188,25 +1182,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1214,25 +1208,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1240,25 +1234,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1266,25 +1260,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1456,9 +1450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC1B24-763A-458E-B6D6-B0F23F0AB5F5}">
   <dimension ref="A1:AZ332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1475,37 +1469,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1553,34 +1547,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L2" s="5">
         <v>1</v>
@@ -1631,28 +1625,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1705,28 +1699,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1779,28 +1773,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1853,28 +1847,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1927,28 +1921,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -2001,28 +1995,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2075,28 +2069,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -2149,28 +2143,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -2223,28 +2217,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2297,28 +2291,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="I12" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2371,28 +2365,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -2445,28 +2439,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2519,28 +2513,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2593,28 +2587,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -2667,28 +2661,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -2741,28 +2735,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="F18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2815,28 +2809,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="F19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -2889,28 +2883,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -2963,34 +2957,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="L21" s="5">
         <v>4</v>
@@ -3041,34 +3035,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="I22" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L22" s="5">
         <v>4</v>
@@ -16631,9 +16625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA96DCD2-4248-45C5-BBE9-39120B7C496A}">
   <dimension ref="A1:EQ176"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16647,34 +16641,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -16818,31 +16812,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K2" s="5">
         <v>20</v>
@@ -16989,31 +16983,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="K3" s="5">
         <v>20</v>
@@ -17160,31 +17154,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="K4" s="5">
         <v>20</v>
@@ -17331,31 +17325,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="K5" s="5">
         <v>20</v>
@@ -17502,31 +17496,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="K6" s="5">
         <v>20</v>
@@ -17673,31 +17667,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="K7" s="5">
         <v>20</v>
@@ -17844,25 +17838,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -18011,25 +18005,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -18178,25 +18172,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -18345,25 +18339,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -18512,25 +18506,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -18679,25 +18673,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -18846,25 +18840,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -19013,25 +19007,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -19180,25 +19174,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -19347,25 +19341,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -19514,25 +19508,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -19681,25 +19675,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -19848,25 +19842,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -20015,25 +20009,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>

--- a/MAPS_BASE/WORLD.xlsx
+++ b/MAPS_BASE/WORLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/MAPS_BASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCFFC0-285D-844D-804B-1EBE9ECD8BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20FA24F-10FB-0F41-88FD-A59490FDC3B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="2100" windowWidth="39300" windowHeight="18240" activeTab="2" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
+    <workbookView xWindow="8740" yWindow="460" windowWidth="39300" windowHeight="18240" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="1" r:id="rId1"/>
@@ -760,12 +760,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -780,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,9 +1122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE97BFD-F36A-4E40-AD7D-EA1A19204B91}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1161,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1178,7 +1187,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1204,7 +1213,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1230,7 +1239,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1256,7 +1265,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1450,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC1B24-763A-458E-B6D6-B0F23F0AB5F5}">
   <dimension ref="A1:AZ332"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -16625,7 +16634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA96DCD2-4248-45C5-BBE9-39120B7C496A}">
   <dimension ref="A1:EQ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>

--- a/MAPS_BASE/WORLD.xlsx
+++ b/MAPS_BASE/WORLD.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/MAPS_BASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65232C06-D51E-C74E-AD32-07C25CE30C48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E079751-1811-634C-8956-743C1C4B7611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="460" windowWidth="39300" windowHeight="18240" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
+    <workbookView xWindow="3440" yWindow="1240" windowWidth="43180" windowHeight="18780" activeTab="2" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="1" r:id="rId1"/>
     <sheet name="Сountries" sheetId="2" r:id="rId2"/>
     <sheet name="Сities" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="353">
   <si>
     <t>id</t>
   </si>
@@ -50,12 +51,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
     <t>id_country</t>
   </si>
   <si>
@@ -101,78 +96,558 @@
     <t>Australien</t>
   </si>
   <si>
-    <t>Вануату</t>
-  </si>
-  <si>
-    <t>VU</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>Папуа — Новая Гвинея</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Papua Nuova Guinea</t>
-  </si>
-  <si>
-    <t>Papua Nova Guiné</t>
-  </si>
-  <si>
-    <t>Papua-Neuguinea</t>
-  </si>
-  <si>
-    <t>Papúa Nueva Guinea</t>
-  </si>
-  <si>
-    <t>Papouasie-Nouvelle-Guinée</t>
-  </si>
-  <si>
-    <t>Соломоновы Острова</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Îles Salomon</t>
-  </si>
-  <si>
-    <t>Islas Salomón</t>
-  </si>
-  <si>
-    <t>Ilhas Salomão</t>
-  </si>
-  <si>
-    <t>Isole Salomone</t>
-  </si>
-  <si>
-    <t>Salomonen</t>
-  </si>
-  <si>
-    <t>Фиджи</t>
-  </si>
-  <si>
-    <t>Fidji</t>
-  </si>
-  <si>
-    <t>Fiyi</t>
-  </si>
-  <si>
-    <t>Fidschi</t>
-  </si>
-  <si>
-    <t>Figi</t>
+    <t>Океания</t>
+  </si>
+  <si>
+    <t>Océanie</t>
+  </si>
+  <si>
+    <t>Ozeanien</t>
+  </si>
+  <si>
+    <t>Oceanía</t>
+  </si>
+  <si>
+    <t>Азия</t>
+  </si>
+  <si>
+    <t>Asie</t>
+  </si>
+  <si>
+    <t>Ásia</t>
+  </si>
+  <si>
+    <t>Asien</t>
+  </si>
+  <si>
+    <t>Африка</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>África</t>
+  </si>
+  <si>
+    <t>Afrika</t>
+  </si>
+  <si>
+    <t>Европа</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Америка</t>
+  </si>
+  <si>
+    <t>Amérique</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>Amerika</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Париж</t>
+  </si>
+  <si>
+    <t>París</t>
+  </si>
+  <si>
+    <t>Parigi</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>1.776824</t>
+  </si>
+  <si>
+    <t>1.514595</t>
+  </si>
+  <si>
+    <t>Марсель</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Marsella</t>
+  </si>
+  <si>
+    <t>Marselha</t>
+  </si>
+  <si>
+    <t>Marsiglia</t>
+  </si>
+  <si>
+    <t>1.272541</t>
+  </si>
+  <si>
+    <t>4.223256</t>
+  </si>
+  <si>
+    <t>Тулуза</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Tolosa</t>
+  </si>
+  <si>
+    <t>2.022801</t>
+  </si>
+  <si>
+    <t>3.823158</t>
+  </si>
+  <si>
+    <t>Лион</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Lione</t>
+  </si>
+  <si>
+    <t>1.341253</t>
+  </si>
+  <si>
+    <t>2.346253</t>
+  </si>
+  <si>
+    <t>Нант</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>3.857143</t>
+  </si>
+  <si>
+    <t>1.864476</t>
+  </si>
+  <si>
+    <t>Страсбург</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Estrasburgo</t>
+  </si>
+  <si>
+    <t>Straßburg</t>
+  </si>
+  <si>
+    <t>Strasburgo</t>
+  </si>
+  <si>
+    <t>1.037594</t>
+  </si>
+  <si>
+    <t>1.558798</t>
+  </si>
+  <si>
+    <t>Франция</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Frankreich</t>
+  </si>
+  <si>
+    <t>fr.png</t>
+  </si>
+  <si>
+    <t>Дарвин</t>
+  </si>
+  <si>
+    <t>Перт</t>
+  </si>
+  <si>
+    <t>Аделаида</t>
+  </si>
+  <si>
+    <t>Канберра</t>
+  </si>
+  <si>
+    <t>Хобарт</t>
+  </si>
+  <si>
+    <t>Брисбен</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>Adélaïde</t>
+  </si>
+  <si>
+    <t>Adelaida</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>au.png</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Camberra</t>
+  </si>
+  <si>
+    <t>5.746835</t>
+  </si>
+  <si>
+    <t>1.191938</t>
+  </si>
+  <si>
+    <t>1.135283</t>
+  </si>
+  <si>
+    <t>3.077966</t>
+  </si>
+  <si>
+    <t>12.545454</t>
+  </si>
+  <si>
+    <t>2.546984</t>
+  </si>
+  <si>
+    <t>1.590269</t>
+  </si>
+  <si>
+    <t>3.006622</t>
+  </si>
+  <si>
+    <t>1.023064</t>
+  </si>
+  <si>
+    <t>2.087356</t>
+  </si>
+  <si>
+    <t>2.258182</t>
+  </si>
+  <si>
+    <t>1.284300</t>
+  </si>
+  <si>
+    <t>Канада</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>ca.png</t>
+  </si>
+  <si>
+    <t>Оттава</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>1.350000</t>
+  </si>
+  <si>
+    <t>4.540000</t>
+  </si>
+  <si>
+    <t>Ванкувер</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>4.832685</t>
+  </si>
+  <si>
+    <t>3.499037</t>
+  </si>
+  <si>
+    <t>Калгари</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>3.259842</t>
+  </si>
+  <si>
+    <t>3.185965</t>
+  </si>
+  <si>
+    <t>Виннипег</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>2.000000</t>
+  </si>
+  <si>
+    <t>3.419962</t>
+  </si>
+  <si>
+    <t>Уайтхорс</t>
+  </si>
+  <si>
+    <t>Whitehorse</t>
+  </si>
+  <si>
+    <t>Икалуит</t>
+  </si>
+  <si>
+    <t>Iqaluit</t>
+  </si>
+  <si>
+    <t>13.955056</t>
+  </si>
+  <si>
+    <t>2.114086</t>
+  </si>
+  <si>
+    <t>1.223645</t>
+  </si>
+  <si>
+    <t>1.907563</t>
+  </si>
+  <si>
+    <t>Мексика</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Mexique</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Mexiko</t>
+  </si>
+  <si>
+    <t>Messico</t>
+  </si>
+  <si>
+    <t>mx.png</t>
+  </si>
+  <si>
+    <t>Мехико</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Mexiko-Stadt</t>
+  </si>
+  <si>
+    <t>Città del Messico</t>
+  </si>
+  <si>
+    <t>Гвадалахара</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>Монтеррей</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Monterrei</t>
+  </si>
+  <si>
+    <t>Мерида</t>
+  </si>
+  <si>
+    <t>Mérida</t>
+  </si>
+  <si>
+    <t>Эрмосильо</t>
+  </si>
+  <si>
+    <t>Hermosillo</t>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Itália</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>it.png</t>
+  </si>
+  <si>
+    <t>Рим</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>Палермо</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Palerme</t>
+  </si>
+  <si>
+    <t>Бари</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Милан</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Milán</t>
+  </si>
+  <si>
+    <t>Milão</t>
+  </si>
+  <si>
+    <t>Mailand</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Венеция</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>Venise</t>
+  </si>
+  <si>
+    <t>Venecia</t>
+  </si>
+  <si>
+    <t>Veneza</t>
+  </si>
+  <si>
+    <t>Venedig</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Неаполь</t>
+  </si>
+  <si>
+    <t>Naples</t>
+  </si>
+  <si>
+    <t>Nápoles</t>
+  </si>
+  <si>
+    <t>Neapel</t>
+  </si>
+  <si>
+    <t>Napoli</t>
   </si>
   <si>
     <t>Новая Зеландия</t>
   </si>
   <si>
+    <t>NZ</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -191,565 +666,436 @@
     <t>Nuova Zelanda</t>
   </si>
   <si>
-    <t>Самоа</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Кирибати</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Тонга</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tonga</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Афганистан</t>
-  </si>
-  <si>
-    <t>Afganistán</t>
-  </si>
-  <si>
-    <t>Afeganistão</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Армения</t>
-  </si>
-  <si>
-    <t>Arménie</t>
-  </si>
-  <si>
-    <t>Armenien</t>
-  </si>
-  <si>
-    <t>Arménia</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Азербайджан</t>
-  </si>
-  <si>
-    <t>Azerbaïdjan</t>
-  </si>
-  <si>
-    <t>Aserbaidschan</t>
-  </si>
-  <si>
-    <t>Azerbaiyán</t>
-  </si>
-  <si>
-    <t>Azerbaijão</t>
-  </si>
-  <si>
-    <t>Azerbaigian</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>Бахрейн</t>
-  </si>
-  <si>
-    <t>Bahreïn</t>
-  </si>
-  <si>
-    <t>Baréin</t>
-  </si>
-  <si>
-    <t>Bahrein</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>FJ</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>WS</t>
-  </si>
-  <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>Бангладеш</t>
-  </si>
-  <si>
-    <t>Bangladesch</t>
-  </si>
-  <si>
-    <t>Bangladés</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>Бутан</t>
-  </si>
-  <si>
-    <t>Bhoutan</t>
-  </si>
-  <si>
-    <t>Bután</t>
-  </si>
-  <si>
-    <t>Butão</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Бруней</t>
-  </si>
-  <si>
-    <t>Brunéi</t>
+    <t>nz.png</t>
+  </si>
+  <si>
+    <t>Веллингтон</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Окленд</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Крайстчерч</t>
+  </si>
+  <si>
+    <t>Christchurch</t>
+  </si>
+  <si>
+    <t>Данидин</t>
+  </si>
+  <si>
+    <t>Dunedin</t>
+  </si>
+  <si>
+    <t>Гисборн</t>
+  </si>
+  <si>
+    <t>Gisborne</t>
+  </si>
+  <si>
+    <t>Инверкаргилл</t>
+  </si>
+  <si>
+    <t>Invercargill</t>
+  </si>
+  <si>
+    <t>Пакистан</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Pakistán</t>
+  </si>
+  <si>
+    <t>Paquistão</t>
+  </si>
+  <si>
+    <t>pk.png</t>
+  </si>
+  <si>
+    <t>Исламабад</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>Лахор</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>Карачи</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Carachi</t>
+  </si>
+  <si>
+    <t>Karatschi</t>
+  </si>
+  <si>
+    <t>Мултан</t>
+  </si>
+  <si>
+    <t>Multan</t>
+  </si>
+  <si>
+    <t>Multán</t>
+  </si>
+  <si>
+    <t>Хайдарабад</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Кветта</t>
+  </si>
+  <si>
+    <t>Quetta</t>
+  </si>
+  <si>
+    <t>Камбоджа</t>
+  </si>
+  <si>
+    <t>KH</t>
   </si>
   <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Камбоджа</t>
-  </si>
-  <si>
     <t>Cambodge</t>
   </si>
   <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>Camboja</t>
+  </si>
+  <si>
     <t>Kambodscha</t>
   </si>
   <si>
-    <t>Camboya</t>
-  </si>
-  <si>
-    <t>Camboja</t>
-  </si>
-  <si>
     <t>Cambogia</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Китай</t>
-  </si>
-  <si>
-    <t>Chine</t>
-  </si>
-  <si>
-    <t>Cina</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>Кипр</t>
-  </si>
-  <si>
-    <t>Chypre</t>
-  </si>
-  <si>
-    <t>Zypern</t>
-  </si>
-  <si>
-    <t>Chipre</t>
-  </si>
-  <si>
-    <t>Cipro</t>
-  </si>
-  <si>
-    <t>Океания</t>
-  </si>
-  <si>
-    <t>Océanie</t>
-  </si>
-  <si>
-    <t>Ozeanien</t>
-  </si>
-  <si>
-    <t>Oceanía</t>
-  </si>
-  <si>
-    <t>Азия</t>
-  </si>
-  <si>
-    <t>Asie</t>
-  </si>
-  <si>
-    <t>Ásia</t>
-  </si>
-  <si>
-    <t>Asien</t>
-  </si>
-  <si>
-    <t>Африка</t>
-  </si>
-  <si>
-    <t>Afrique</t>
-  </si>
-  <si>
-    <t>África</t>
-  </si>
-  <si>
-    <t>Afrika</t>
-  </si>
-  <si>
-    <t>Европа</t>
-  </si>
-  <si>
-    <t>Europa</t>
-  </si>
-  <si>
-    <t>Америка</t>
-  </si>
-  <si>
-    <t>Amérique</t>
-  </si>
-  <si>
-    <t>América</t>
-  </si>
-  <si>
-    <t>Amerika</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Париж</t>
-  </si>
-  <si>
-    <t>París</t>
-  </si>
-  <si>
-    <t>Parigi</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>1.776824</t>
-  </si>
-  <si>
-    <t>1.514595</t>
-  </si>
-  <si>
-    <t>Марсель</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Marsella</t>
-  </si>
-  <si>
-    <t>Marselha</t>
-  </si>
-  <si>
-    <t>Marsiglia</t>
-  </si>
-  <si>
-    <t>1.272541</t>
-  </si>
-  <si>
-    <t>4.223256</t>
-  </si>
-  <si>
-    <t>Тулуза</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Tolosa</t>
-  </si>
-  <si>
-    <t>2.022801</t>
-  </si>
-  <si>
-    <t>3.823158</t>
-  </si>
-  <si>
-    <t>Лион</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Lione</t>
-  </si>
-  <si>
-    <t>1.341253</t>
-  </si>
-  <si>
-    <t>2.346253</t>
-  </si>
-  <si>
-    <t>Нант</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>3.857143</t>
-  </si>
-  <si>
-    <t>1.864476</t>
-  </si>
-  <si>
-    <t>Страсбург</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Estrasburgo</t>
-  </si>
-  <si>
-    <t>Straßburg</t>
-  </si>
-  <si>
-    <t>Strasburgo</t>
-  </si>
-  <si>
-    <t>1.037594</t>
-  </si>
-  <si>
-    <t>1.558798</t>
-  </si>
-  <si>
-    <t>Франция</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Francia</t>
-  </si>
-  <si>
-    <t>França</t>
-  </si>
-  <si>
-    <t>Frankreich</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>fr.png</t>
-  </si>
-  <si>
-    <t>Дарвин</t>
-  </si>
-  <si>
-    <t>Перт</t>
-  </si>
-  <si>
-    <t>Мельбурн</t>
-  </si>
-  <si>
-    <t>Аделаида</t>
-  </si>
-  <si>
-    <t>Канберра</t>
-  </si>
-  <si>
-    <t>Хобарт</t>
-  </si>
-  <si>
-    <t>Брисбен</t>
-  </si>
-  <si>
-    <t>Сидней</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>Perth</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Adelaide</t>
-  </si>
-  <si>
-    <t>Adélaïde</t>
-  </si>
-  <si>
-    <t>Adelaida</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
-  <si>
-    <t>Hobart</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Sídney</t>
-  </si>
-  <si>
-    <t>au.png</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>al.png</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Албания</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Albanie</t>
-  </si>
-  <si>
-    <t>Albânia</t>
-  </si>
-  <si>
-    <t>Albanien</t>
-  </si>
-  <si>
-    <t>Тирана</t>
-  </si>
-  <si>
-    <t>Tirana</t>
-  </si>
-  <si>
-    <t>Дуррес</t>
-  </si>
-  <si>
-    <t>Durrës</t>
-  </si>
-  <si>
-    <t>Durazzo</t>
-  </si>
-  <si>
-    <t>Влёра</t>
-  </si>
-  <si>
-    <t>Vlorë</t>
-  </si>
-  <si>
-    <t>Vlora</t>
-  </si>
-  <si>
-    <t>Valona</t>
-  </si>
-  <si>
-    <t>Эльбасан</t>
-  </si>
-  <si>
-    <t>Elbasan</t>
-  </si>
-  <si>
-    <t>Elbasani</t>
-  </si>
-  <si>
-    <t>Шкодер</t>
-  </si>
-  <si>
-    <t>Shkodër</t>
-  </si>
-  <si>
-    <t>Escodra</t>
-  </si>
-  <si>
-    <t>Shkodra</t>
-  </si>
-  <si>
-    <t>Scutari</t>
-  </si>
-  <si>
-    <t>Корча</t>
-  </si>
-  <si>
-    <t>Korçë</t>
-  </si>
-  <si>
-    <t>Korça</t>
-  </si>
-  <si>
-    <t>Coriza</t>
-  </si>
-  <si>
-    <t>en</t>
+    <t>kh.png</t>
+  </si>
+  <si>
+    <t>Пномпень</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Nom Pen</t>
+  </si>
+  <si>
+    <t>Баттамбан</t>
+  </si>
+  <si>
+    <t>Battambang</t>
+  </si>
+  <si>
+    <t>Кампонгтям</t>
+  </si>
+  <si>
+    <t>Kampong Cham</t>
+  </si>
+  <si>
+    <t>Kompong Cham</t>
+  </si>
+  <si>
+    <t>Kompung Cham</t>
+  </si>
+  <si>
+    <t>Сиемреап</t>
+  </si>
+  <si>
+    <t>Siem Reap</t>
+  </si>
+  <si>
+    <t>Siem Riep</t>
+  </si>
+  <si>
+    <t>Стынгтраенг</t>
+  </si>
+  <si>
+    <t>Stung Treng</t>
+  </si>
+  <si>
+    <t>Stoeng Treng</t>
+  </si>
+  <si>
+    <t>Сиануквиль</t>
+  </si>
+  <si>
+    <t>Sihanoukville</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>eg.png</t>
+  </si>
+  <si>
+    <t>Égypte</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>Egito</t>
+  </si>
+  <si>
+    <t>Ägypten</t>
+  </si>
+  <si>
+    <t>Egitto</t>
+  </si>
+  <si>
+    <t>Каир</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Le Caire</t>
+  </si>
+  <si>
+    <t>El Cairo</t>
+  </si>
+  <si>
+    <t>Kairo</t>
+  </si>
+  <si>
+    <t>Il Cairo</t>
+  </si>
+  <si>
+    <t>Александрия</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Alexandrie</t>
+  </si>
+  <si>
+    <t>Alejandría</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Порт-Саид</t>
+  </si>
+  <si>
+    <t>Port Said</t>
+  </si>
+  <si>
+    <t>Port-Saïd</t>
+  </si>
+  <si>
+    <t>Puerto Saíd</t>
+  </si>
+  <si>
+    <t>Porto Said</t>
+  </si>
+  <si>
+    <t>Луксор</t>
+  </si>
+  <si>
+    <t>Luxor</t>
+  </si>
+  <si>
+    <t>Louxor</t>
+  </si>
+  <si>
+    <t>Хургада</t>
+  </si>
+  <si>
+    <t>Hurghada</t>
+  </si>
+  <si>
+    <t>Hurgada</t>
+  </si>
+  <si>
+    <t>Асуан</t>
+  </si>
+  <si>
+    <t>Aswan</t>
+  </si>
+  <si>
+    <t>Assouan</t>
+  </si>
+  <si>
+    <t>Asuán</t>
+  </si>
+  <si>
+    <t>Assuão</t>
+  </si>
+  <si>
+    <t>Assuan</t>
+  </si>
+  <si>
+    <t>Ангола</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>ao.png</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Луанда</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Кабинда</t>
+  </si>
+  <si>
+    <t>Cabinda</t>
+  </si>
+  <si>
+    <t>Уамбо</t>
+  </si>
+  <si>
+    <t>Huambo</t>
+  </si>
+  <si>
+    <t>Лубанго</t>
+  </si>
+  <si>
+    <t>Lubango</t>
+  </si>
+  <si>
+    <t>Квито</t>
+  </si>
+  <si>
+    <t>Kuito</t>
+  </si>
+  <si>
+    <t>Cuíto</t>
+  </si>
+  <si>
+    <t>Маланже</t>
+  </si>
+  <si>
+    <t>Malanje</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>1.369350</t>
+  </si>
+  <si>
+    <t>1.692451</t>
+  </si>
+  <si>
+    <t>1.505454</t>
+  </si>
+  <si>
+    <t>2.209246</t>
+  </si>
+  <si>
+    <t>2.566116</t>
+  </si>
+  <si>
+    <t>1.806965</t>
+  </si>
+  <si>
+    <t>1.548628</t>
+  </si>
+  <si>
+    <t>1.108669</t>
+  </si>
+  <si>
+    <t>4.909091</t>
+  </si>
+  <si>
+    <t>4.894879</t>
+  </si>
+  <si>
+    <t>2.029412</t>
+  </si>
+  <si>
+    <t>1.967497</t>
+  </si>
+  <si>
+    <t>1.774286</t>
+  </si>
+  <si>
+    <t>6.603636</t>
+  </si>
+  <si>
+    <t>1.172804</t>
+  </si>
+  <si>
+    <t>2.355383</t>
+  </si>
+  <si>
+    <t>4.583026</t>
+  </si>
+  <si>
+    <t>1.189260</t>
+  </si>
+  <si>
+    <t>2.087395</t>
+  </si>
+  <si>
+    <t>1.192383</t>
+  </si>
+  <si>
+    <t>1.562264</t>
+  </si>
+  <si>
+    <t>2.470748</t>
+  </si>
+  <si>
+    <t>Акапулько</t>
+  </si>
+  <si>
+    <t>Acapulco</t>
+  </si>
+  <si>
+    <t>1.146814</t>
+  </si>
+  <si>
+    <t>1.769980</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -769,7 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,8 +1150,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1122,9 +1470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE97BFD-F36A-4E40-AD7D-EA1A19204B91}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,152 +1487,152 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>5</v>
@@ -1297,17 +1645,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC1B24-763A-458E-B6D6-B0F23F0AB5F5}">
-  <dimension ref="A1:L246"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="9" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="9" width="20.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
@@ -1318,37 +1668,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1359,723 +1709,531 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="L2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L3" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
+      <c r="B5" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="L5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+      <c r="B6" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L6" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
+      <c r="B7" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>55</v>
+      <c r="B8" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>57</v>
+      <c r="B9" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>59</v>
+      <c r="B10" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>61</v>
+      <c r="B11" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L11" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5">
-        <v>2</v>
-      </c>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5">
-        <v>2</v>
-      </c>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>2</v>
-      </c>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <v>2</v>
-      </c>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5">
-        <v>2</v>
-      </c>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5">
-        <v>2</v>
-      </c>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <v>2</v>
-      </c>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <v>2</v>
-      </c>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5">
-        <v>2</v>
-      </c>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L21" s="5">
-        <v>4</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="L22" s="5">
-        <v>4</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
@@ -3632,270 +3790,270 @@
       <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
@@ -4947,272 +5105,6 @@
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5220,1194 +5112,2338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA96DCD2-4248-45C5-BBE9-39120B7C496A}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+        <v>45</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+        <v>47</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="5">
         <v>2</v>
       </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+        <v>54</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+        <v>59</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+        <v>64</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+        <v>68</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K7" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
+        <v>94</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
+        <v>90</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+        <v>91</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
+        <v>95</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5">
+        <v>89</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+        <v>123</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+        <v>128</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+        <v>139</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>220</v>
+        <v>131</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+        <v>132</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>223</v>
+      <c r="B18" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+        <v>142</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>227</v>
+      <c r="B19" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>230</v>
+      <c r="B20" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>230</v>
+        <v>155</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>235</v>
+      <c r="B21" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>235</v>
+        <v>160</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5">
+        <v>161</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L36" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="K40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="K41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="K42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="K43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L47" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="K49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L49" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L50" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L51" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="K53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L53" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L54" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L55" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L57" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L58" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L59" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L60" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L61" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC53C1F-6E94-1345-8F81-26083E02DE3C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1083</v>
+      </c>
+      <c r="B2" s="7">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <f>1242/A2</f>
+        <v>1.1468144044321329</v>
+      </c>
+      <c r="B3" s="8">
+        <f>1816/(1816-B2)</f>
+        <v>1.769980506822612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MAPS_BASE/WORLD.xlsx
+++ b/MAPS_BASE/WORLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/MAPS_BASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E079751-1811-634C-8956-743C1C4B7611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA9159-959A-C444-97AF-2189EAB6443A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1240" windowWidth="43180" windowHeight="18780" activeTab="2" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
+    <workbookView xWindow="1560" yWindow="1000" windowWidth="43180" windowHeight="18780" activeTab="1" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="357">
   <si>
     <t>id</t>
   </si>
@@ -1087,6 +1087,18 @@
   </si>
   <si>
     <t>1.769980</t>
+  </si>
+  <si>
+    <t>2.406977</t>
+  </si>
+  <si>
+    <t>2.491084</t>
+  </si>
+  <si>
+    <t>1.878971</t>
+  </si>
+  <si>
+    <t>2.929032</t>
   </si>
 </sst>
 </file>
@@ -1645,11 +1657,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC1B24-763A-458E-B6D6-B0F23F0AB5F5}">
-  <dimension ref="A1:L227"/>
+  <dimension ref="A1:N227"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1658,12 +1670,12 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
     <col min="4" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="10" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1695,13 +1707,19 @@
         <v>15</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1732,14 +1750,16 @@
       <c r="J2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="5">
+      <c r="N2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1771,13 +1791,19 @@
         <v>82</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="5">
+      <c r="N3" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1808,14 +1834,16 @@
       <c r="J4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="5">
+      <c r="N4" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1846,14 +1874,16 @@
       <c r="J5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L5" s="5">
+      <c r="N5" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1885,13 +1915,19 @@
         <v>176</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="5">
+      <c r="N6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1922,14 +1958,16 @@
       <c r="J7" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="5">
+      <c r="N7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1960,14 +1998,16 @@
       <c r="J8" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="5">
+      <c r="N8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1998,14 +2038,16 @@
       <c r="J9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="5">
+      <c r="N9" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2036,14 +2078,16 @@
       <c r="J10" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="5">
+      <c r="N10" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2074,14 +2118,16 @@
       <c r="J11" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="5">
+      <c r="N11" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2094,8 +2140,10 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2108,8 +2156,10 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2122,8 +2172,10 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2136,8 +2188,10 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2150,8 +2204,10 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2164,8 +2220,10 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2178,8 +2236,10 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2192,8 +2252,10 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2206,8 +2268,10 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2220,8 +2284,10 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2234,8 +2300,10 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2248,8 +2316,10 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2262,8 +2332,10 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2276,8 +2348,10 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2290,8 +2364,10 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2304,8 +2380,10 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2318,8 +2396,10 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2332,8 +2412,10 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2346,8 +2428,10 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2360,8 +2444,10 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2374,8 +2460,10 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2388,8 +2476,10 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2402,8 +2492,10 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2416,8 +2508,10 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2430,8 +2524,10 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2444,8 +2540,10 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2458,8 +2556,10 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2472,8 +2572,10 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2486,8 +2588,10 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2500,8 +2604,10 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2514,8 +2620,10 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2528,8 +2636,10 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2542,8 +2652,10 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2556,8 +2668,10 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2570,8 +2684,10 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2584,8 +2700,10 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2598,8 +2716,10 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2612,8 +2732,10 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2626,8 +2748,10 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2640,8 +2764,10 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2654,8 +2780,10 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2668,8 +2796,10 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2682,8 +2812,10 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2696,8 +2828,10 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2710,8 +2844,10 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2724,8 +2860,10 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2738,8 +2876,10 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2752,8 +2892,10 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2766,8 +2908,10 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2780,8 +2924,10 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2794,8 +2940,10 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2808,8 +2956,10 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2822,8 +2972,10 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2836,8 +2988,10 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2850,8 +3004,10 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2864,8 +3020,10 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2878,8 +3036,10 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2892,8 +3052,10 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2906,8 +3068,10 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2920,8 +3084,10 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2934,8 +3100,10 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2948,8 +3116,10 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2962,8 +3132,10 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2976,8 +3148,10 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2990,8 +3164,10 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3004,8 +3180,10 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3018,8 +3196,10 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3032,8 +3212,10 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3046,8 +3228,10 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3060,8 +3244,10 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3074,8 +3260,10 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3088,8 +3276,10 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3102,8 +3292,10 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3116,8 +3308,10 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3130,8 +3324,10 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3144,8 +3340,10 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3158,8 +3356,10 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3172,8 +3372,10 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3186,8 +3388,10 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3200,8 +3404,10 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3214,8 +3420,10 @@
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3228,8 +3436,10 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3242,8 +3452,10 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3256,8 +3468,10 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3270,8 +3484,10 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3284,8 +3500,10 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3298,8 +3516,10 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3312,8 +3532,10 @@
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3326,8 +3548,10 @@
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3340,8 +3564,10 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3354,8 +3580,10 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3368,8 +3596,10 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3382,8 +3612,10 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3396,8 +3628,10 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3410,8 +3644,10 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3424,8 +3660,10 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3438,8 +3676,10 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3452,8 +3692,10 @@
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3466,8 +3708,10 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3480,8 +3724,10 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3494,8 +3740,10 @@
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3508,8 +3756,10 @@
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3522,8 +3772,10 @@
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3536,8 +3788,10 @@
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3550,8 +3804,10 @@
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3564,8 +3820,10 @@
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3578,8 +3836,10 @@
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3592,8 +3852,10 @@
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3606,8 +3868,10 @@
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3620,8 +3884,10 @@
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3634,8 +3900,10 @@
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3648,8 +3916,10 @@
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3662,8 +3932,10 @@
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3676,8 +3948,10 @@
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3690,8 +3964,10 @@
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3704,8 +3980,10 @@
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3718,8 +3996,10 @@
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3732,8 +4012,10 @@
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3746,8 +4028,10 @@
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3760,8 +4044,10 @@
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3774,8 +4060,10 @@
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3788,8 +4076,10 @@
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3802,8 +4092,10 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3816,8 +4108,10 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3830,8 +4124,10 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3844,8 +4140,10 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3858,8 +4156,10 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3872,8 +4172,10 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3886,8 +4188,10 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3900,8 +4204,10 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3914,8 +4220,10 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3928,8 +4236,10 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3942,8 +4252,10 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3956,8 +4268,10 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3970,8 +4284,10 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3984,8 +4300,10 @@
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3998,8 +4316,10 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4012,8 +4332,10 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4026,8 +4348,10 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4040,8 +4364,10 @@
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4054,8 +4380,10 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4068,8 +4396,10 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4082,8 +4412,10 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4096,8 +4428,10 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4110,8 +4444,10 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4124,8 +4460,10 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4138,8 +4476,10 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4152,8 +4492,10 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4166,8 +4508,10 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4180,8 +4524,10 @@
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4194,8 +4540,10 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4208,8 +4556,10 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4222,8 +4572,10 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4236,8 +4588,10 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4250,8 +4604,10 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4264,8 +4620,10 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4278,8 +4636,10 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4292,8 +4652,10 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4306,8 +4668,10 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4320,8 +4684,10 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4334,8 +4700,10 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4348,8 +4716,10 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4362,8 +4732,10 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4376,8 +4748,10 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4390,8 +4764,10 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4404,8 +4780,10 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4418,8 +4796,10 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4432,8 +4812,10 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4446,8 +4828,10 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4460,8 +4844,10 @@
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4474,8 +4860,10 @@
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4488,8 +4876,10 @@
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4502,8 +4892,10 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4516,8 +4908,10 @@
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4530,8 +4924,10 @@
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4544,8 +4940,10 @@
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4558,8 +4956,10 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4572,8 +4972,10 @@
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4586,8 +4988,10 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4600,8 +5004,10 @@
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4614,8 +5020,10 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4628,8 +5036,10 @@
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4642,8 +5052,10 @@
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4656,8 +5068,10 @@
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4670,8 +5084,10 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4684,8 +5100,10 @@
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4698,8 +5116,10 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4712,8 +5132,10 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4726,8 +5148,10 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4740,8 +5164,10 @@
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4754,8 +5180,10 @@
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4768,8 +5196,10 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -4782,8 +5212,10 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -4796,8 +5228,10 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -4810,8 +5244,10 @@
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -4824,8 +5260,10 @@
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -4838,8 +5276,10 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -4852,8 +5292,10 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4866,8 +5308,10 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4880,8 +5324,10 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -4894,8 +5340,10 @@
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4908,8 +5356,10 @@
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -4922,8 +5372,10 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -4936,8 +5388,10 @@
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -4950,8 +5404,10 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -4964,8 +5420,10 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -4978,8 +5436,10 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -4992,8 +5452,10 @@
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -5006,8 +5468,10 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -5020,8 +5484,10 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -5034,8 +5500,10 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -5048,8 +5516,10 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -5062,8 +5532,10 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -5076,8 +5548,10 @@
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -5090,8 +5564,10 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -5104,6 +5580,8 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5114,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA96DCD2-4248-45C5-BBE9-39120B7C496A}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
@@ -7427,20 +7905,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>1083</v>
+        <v>661</v>
       </c>
       <c r="B2" s="7">
-        <v>790</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <f>1242/A2</f>
-        <v>1.1468144044321329</v>
+        <v>1.8789712556732223</v>
       </c>
       <c r="B3" s="8">
         <f>1816/(1816-B2)</f>
-        <v>1.769980506822612</v>
+        <v>2.9290322580645163</v>
       </c>
     </row>
   </sheetData>

--- a/MAPS_BASE/WORLD.xlsx
+++ b/MAPS_BASE/WORLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/MAPS_BASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA9159-959A-C444-97AF-2189EAB6443A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F7013F-E47B-B44F-AB3F-A8EC8A9D8636}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1000" windowWidth="43180" windowHeight="18780" activeTab="1" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
+    <workbookView xWindow="3900" yWindow="3880" windowWidth="43180" windowHeight="18780" activeTab="2" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="429">
   <si>
     <t>id</t>
   </si>
@@ -906,21 +906,6 @@
     <t>Alessandria</t>
   </si>
   <si>
-    <t>Порт-Саид</t>
-  </si>
-  <si>
-    <t>Port Said</t>
-  </si>
-  <si>
-    <t>Port-Saïd</t>
-  </si>
-  <si>
-    <t>Puerto Saíd</t>
-  </si>
-  <si>
-    <t>Porto Said</t>
-  </si>
-  <si>
     <t>Луксор</t>
   </si>
   <si>
@@ -1099,6 +1084,237 @@
   </si>
   <si>
     <t>2.929032</t>
+  </si>
+  <si>
+    <t>6.571428</t>
+  </si>
+  <si>
+    <t>5.750000</t>
+  </si>
+  <si>
+    <t>2.539877</t>
+  </si>
+  <si>
+    <t>13.800000</t>
+  </si>
+  <si>
+    <t>2.888372</t>
+  </si>
+  <si>
+    <t>2.270567</t>
+  </si>
+  <si>
+    <t>1.931571</t>
+  </si>
+  <si>
+    <t>1.669355</t>
+  </si>
+  <si>
+    <t>1.598456</t>
+  </si>
+  <si>
+    <t>1.397075</t>
+  </si>
+  <si>
+    <t>1.550562</t>
+  </si>
+  <si>
+    <t>1.489209</t>
+  </si>
+  <si>
+    <t>1.444710</t>
+  </si>
+  <si>
+    <t>1.840000</t>
+  </si>
+  <si>
+    <t>2.511757</t>
+  </si>
+  <si>
+    <t>3.209302</t>
+  </si>
+  <si>
+    <t>1.828802</t>
+  </si>
+  <si>
+    <t>1.403390</t>
+  </si>
+  <si>
+    <t>2.568600</t>
+  </si>
+  <si>
+    <t>2.504032</t>
+  </si>
+  <si>
+    <t>1.277074</t>
+  </si>
+  <si>
+    <t>2.334586</t>
+  </si>
+  <si>
+    <t>1.744476</t>
+  </si>
+  <si>
+    <t>1.466352</t>
+  </si>
+  <si>
+    <t>2.131455</t>
+  </si>
+  <si>
+    <t>1.462898</t>
+  </si>
+  <si>
+    <t>1.243836</t>
+  </si>
+  <si>
+    <t>1.962085</t>
+  </si>
+  <si>
+    <t>3.362963</t>
+  </si>
+  <si>
+    <t>2.950119</t>
+  </si>
+  <si>
+    <t>8.180180</t>
+  </si>
+  <si>
+    <t>1.061538</t>
+  </si>
+  <si>
+    <t>1.502068</t>
+  </si>
+  <si>
+    <t>6.241206</t>
+  </si>
+  <si>
+    <t>12.438356</t>
+  </si>
+  <si>
+    <t>3.652941</t>
+  </si>
+  <si>
+    <t>1.458634</t>
+  </si>
+  <si>
+    <t>2.352272</t>
+  </si>
+  <si>
+    <t>1.334313</t>
+  </si>
+  <si>
+    <t>1.106952</t>
+  </si>
+  <si>
+    <t>2.855346</t>
+  </si>
+  <si>
+    <t>1.913713</t>
+  </si>
+  <si>
+    <t>1.695612</t>
+  </si>
+  <si>
+    <t>1.156424</t>
+  </si>
+  <si>
+    <t>1.904908</t>
+  </si>
+  <si>
+    <t>2.833073</t>
+  </si>
+  <si>
+    <t>2.066556</t>
+  </si>
+  <si>
+    <t>2.868878</t>
+  </si>
+  <si>
+    <t>6.000000</t>
+  </si>
+  <si>
+    <t>1.695611</t>
+  </si>
+  <si>
+    <t>1.703704</t>
+  </si>
+  <si>
+    <t>2.402116</t>
+  </si>
+  <si>
+    <t>3.421488</t>
+  </si>
+  <si>
+    <t>1.602824</t>
+  </si>
+  <si>
+    <t>1.473310</t>
+  </si>
+  <si>
+    <t>1.520938</t>
+  </si>
+  <si>
+    <t>4.435714</t>
+  </si>
+  <si>
+    <t>4.934783</t>
+  </si>
+  <si>
+    <t>1.362340</t>
+  </si>
+  <si>
+    <t>1.231186</t>
+  </si>
+  <si>
+    <t>2.272841</t>
+  </si>
+  <si>
+    <t>1.836198</t>
+  </si>
+  <si>
+    <t>3.016611</t>
+  </si>
+  <si>
+    <t>1.624329</t>
+  </si>
+  <si>
+    <t>1.291607</t>
+  </si>
+  <si>
+    <t>2.361508</t>
+  </si>
+  <si>
+    <t>3.131034</t>
+  </si>
+  <si>
+    <t>1.721327</t>
+  </si>
+  <si>
+    <t>2.261519</t>
+  </si>
+  <si>
+    <t>2.797297</t>
+  </si>
+  <si>
+    <t>1.887734</t>
+  </si>
+  <si>
+    <t>2.340206</t>
+  </si>
+  <si>
+    <t>Фарафра</t>
+  </si>
+  <si>
+    <t>Farafra</t>
+  </si>
+  <si>
+    <t>Al-Farafra</t>
+  </si>
+  <si>
+    <t>3.786585</t>
+  </si>
+  <si>
+    <t>1.879917</t>
   </si>
 </sst>
 </file>
@@ -1659,9 +1875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC1B24-763A-458E-B6D6-B0F23F0AB5F5}">
   <dimension ref="A1:N227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,8 +1966,12 @@
       <c r="J2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="M2" s="5" t="s">
         <v>100</v>
       </c>
@@ -1791,10 +2011,10 @@
         <v>82</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>100</v>
@@ -1834,8 +2054,12 @@
       <c r="J4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="M4" s="5" t="s">
         <v>100</v>
       </c>
@@ -1874,10 +2098,14 @@
       <c r="J5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="M5" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N5" s="5">
         <v>5</v>
@@ -1915,10 +2143,10 @@
         <v>176</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>100</v>
@@ -1958,8 +2186,12 @@
       <c r="J7" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="M7" s="5" t="s">
         <v>100</v>
       </c>
@@ -1998,10 +2230,14 @@
       <c r="J8" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="M8" s="5" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="N8" s="5">
         <v>2</v>
@@ -2038,8 +2274,12 @@
       <c r="J9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="M9" s="5" t="s">
         <v>100</v>
       </c>
@@ -2078,8 +2318,12 @@
       <c r="J10" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="M10" s="5" t="s">
         <v>100</v>
       </c>
@@ -2092,34 +2336,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="M11" s="5" t="s">
         <v>100</v>
       </c>
@@ -5592,9 +5840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA96DCD2-4248-45C5-BBE9-39120B7C496A}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6352,10 +6600,10 @@
         <v>159</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>102</v>
@@ -6390,10 +6638,10 @@
         <v>161</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>103</v>
@@ -6428,10 +6676,10 @@
         <v>163</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>103</v>
@@ -6466,10 +6714,10 @@
         <v>166</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>103</v>
@@ -6504,10 +6752,10 @@
         <v>168</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>103</v>
@@ -6521,31 +6769,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>103</v>
@@ -6580,10 +6828,10 @@
         <v>179</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>102</v>
@@ -6618,10 +6866,10 @@
         <v>182</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>103</v>
@@ -6656,10 +6904,10 @@
         <v>185</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>103</v>
@@ -6694,10 +6942,10 @@
         <v>191</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>103</v>
@@ -6732,10 +6980,10 @@
         <v>198</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>103</v>
@@ -6770,10 +7018,10 @@
         <v>203</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>103</v>
@@ -6807,8 +7055,12 @@
       <c r="H32" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="K32" s="5" t="s">
         <v>102</v>
       </c>
@@ -6841,8 +7093,12 @@
       <c r="H33" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="K33" s="5" t="s">
         <v>103</v>
       </c>
@@ -6875,8 +7131,12 @@
       <c r="H34" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>103</v>
       </c>
@@ -6909,8 +7169,12 @@
       <c r="H35" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="K35" s="5" t="s">
         <v>103</v>
       </c>
@@ -6943,8 +7207,12 @@
       <c r="H36" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="K36" s="5" t="s">
         <v>103</v>
       </c>
@@ -6977,8 +7245,12 @@
       <c r="H37" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>103</v>
       </c>
@@ -7011,8 +7283,12 @@
       <c r="H38" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="K38" s="5" t="s">
         <v>102</v>
       </c>
@@ -7045,8 +7321,12 @@
       <c r="H39" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="K39" s="5" t="s">
         <v>103</v>
       </c>
@@ -7079,8 +7359,12 @@
       <c r="H40" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="I40" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>103</v>
       </c>
@@ -7113,8 +7397,12 @@
       <c r="H41" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>103</v>
       </c>
@@ -7147,8 +7435,12 @@
       <c r="H42" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>103</v>
       </c>
@@ -7181,8 +7473,12 @@
       <c r="H43" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="K43" s="5" t="s">
         <v>103</v>
       </c>
@@ -7215,8 +7511,12 @@
       <c r="H44" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>102</v>
       </c>
@@ -7249,8 +7549,12 @@
       <c r="H45" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>103</v>
       </c>
@@ -7283,8 +7587,12 @@
       <c r="H46" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="K46" s="5" t="s">
         <v>103</v>
       </c>
@@ -7317,8 +7625,12 @@
       <c r="H47" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="I47" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>103</v>
       </c>
@@ -7351,8 +7663,12 @@
       <c r="H48" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="K48" s="5" t="s">
         <v>103</v>
       </c>
@@ -7385,8 +7701,12 @@
       <c r="H49" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="K49" s="5" t="s">
         <v>103</v>
       </c>
@@ -7419,8 +7739,12 @@
       <c r="H50" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="I50" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>102</v>
       </c>
@@ -7453,8 +7777,12 @@
       <c r="H51" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="I51" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>103</v>
       </c>
@@ -7467,28 +7795,32 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>292</v>
+        <v>424</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>294</v>
+        <v>426</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>295</v>
+        <v>425</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+        <v>425</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="K52" s="5" t="s">
         <v>103</v>
       </c>
@@ -7501,28 +7833,32 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+        <v>293</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>103</v>
       </c>
@@ -7535,25 +7871,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>103</v>
@@ -7567,25 +7909,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="H55" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>103</v>
@@ -7599,25 +7947,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>102</v>
@@ -7631,25 +7985,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>103</v>
@@ -7663,25 +8023,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>103</v>
@@ -7695,25 +8061,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>103</v>
@@ -7727,25 +8099,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>103</v>
@@ -7759,25 +8137,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>103</v>
@@ -7905,20 +8289,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <v>661</v>
+        <v>328</v>
       </c>
       <c r="B2" s="7">
-        <v>1196</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <f>1242/A2</f>
-        <v>1.8789712556732223</v>
+        <v>3.7865853658536586</v>
       </c>
       <c r="B3" s="8">
         <f>1816/(1816-B2)</f>
-        <v>2.9290322580645163</v>
+        <v>1.8799171842650104</v>
       </c>
     </row>
   </sheetData>

--- a/MAPS_BASE/WORLD.xlsx
+++ b/MAPS_BASE/WORLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/MAPS_BASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64D13F1-9E4D-B643-BB09-297C244211F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F79EBBA-D4CF-7B4B-9572-2468D84E0C25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="10260" windowWidth="44320" windowHeight="24780" activeTab="1" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="44320" windowHeight="24780" activeTab="1" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="461">
   <si>
     <t>id</t>
   </si>
@@ -1087,14 +1087,339 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Соломоновы Острова</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Îles Salomon</t>
+  </si>
+  <si>
+    <t>Islas Salomón</t>
+  </si>
+  <si>
+    <t>Ilhas Salomão</t>
+  </si>
+  <si>
+    <t>Salomonen</t>
+  </si>
+  <si>
+    <t>Isole Salomone</t>
+  </si>
+  <si>
+    <t>sb.png</t>
+  </si>
+  <si>
+    <t>Хониара</t>
+  </si>
+  <si>
+    <t>Honiara</t>
+  </si>
+  <si>
+    <t>Лата</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t>Ауки</t>
+  </si>
+  <si>
+    <t>Auki</t>
+  </si>
+  <si>
+    <t>Таро</t>
+  </si>
+  <si>
+    <t>Taro</t>
+  </si>
+  <si>
+    <t>Гизо</t>
+  </si>
+  <si>
+    <t>Gizo</t>
+  </si>
+  <si>
+    <t>Kirakira</t>
+  </si>
+  <si>
+    <t>Киракира</t>
+  </si>
+  <si>
+    <t>-R155.5/167.25/-12/-6.5 -JX12.12i/8.29i</t>
+  </si>
+  <si>
+    <t>Фиджи</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Fidji</t>
+  </si>
+  <si>
+    <t>Fiyi</t>
+  </si>
+  <si>
+    <t>Fidschi</t>
+  </si>
+  <si>
+    <t>Figi</t>
+  </si>
+  <si>
+    <t>fj.png</t>
+  </si>
+  <si>
+    <t>Сува</t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>Ламбаса</t>
+  </si>
+  <si>
+    <t>Labasa</t>
+  </si>
+  <si>
+    <t>Мба</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Левука</t>
+  </si>
+  <si>
+    <t>Levuka</t>
+  </si>
+  <si>
+    <t>Савусаву</t>
+  </si>
+  <si>
+    <t>Savusavu</t>
+  </si>
+  <si>
+    <t>Totoya</t>
+  </si>
+  <si>
+    <t>Тотойя</t>
+  </si>
+  <si>
+    <t>-R176.9/182/-19.5/-15.5 -JX8.29i -P</t>
+  </si>
+  <si>
+    <t>Япония</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>jp.png</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
+    <t>Japão</t>
+  </si>
+  <si>
+    <t>Giappone</t>
+  </si>
+  <si>
+    <t>Токио</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Tokio</t>
+  </si>
+  <si>
+    <t>Tóquio</t>
+  </si>
+  <si>
+    <t>Саппоро</t>
+  </si>
+  <si>
+    <t>Sapporo</t>
+  </si>
+  <si>
+    <t>Фукусима</t>
+  </si>
+  <si>
+    <t>Fukushima</t>
+  </si>
+  <si>
+    <t>Осака</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>Фукуока</t>
+  </si>
+  <si>
+    <t>Fukuoka</t>
+  </si>
+  <si>
+    <t>Кагосима</t>
+  </si>
+  <si>
+    <t>Kagoshima</t>
+  </si>
+  <si>
+    <t>-R128.5/146.5/30/45.66 -JX8.29i -P</t>
+  </si>
+  <si>
+    <t>Кирибати</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>ki.png</t>
+  </si>
+  <si>
+    <t>Южная Тарава</t>
+  </si>
+  <si>
+    <t>South Tarawa</t>
+  </si>
+  <si>
+    <t>Tarawa-Sud</t>
+  </si>
+  <si>
+    <t>Tarawa Sur</t>
+  </si>
+  <si>
+    <t>Tarawa do Sul</t>
+  </si>
+  <si>
+    <t>Tarawa Sud</t>
+  </si>
+  <si>
+    <t>Abemama</t>
+  </si>
+  <si>
+    <t>Kiritimati</t>
+  </si>
+  <si>
+    <t>Malden</t>
+  </si>
+  <si>
+    <t>Kanton</t>
+  </si>
+  <si>
+    <t>Arorae</t>
+  </si>
+  <si>
+    <t>-R171/209/-5/2.5 -JX12.12i/8.29i</t>
+  </si>
+  <si>
+    <t>Canton</t>
+  </si>
+  <si>
+    <t>Кантон</t>
+  </si>
+  <si>
+    <t>Арораэ</t>
+  </si>
+  <si>
+    <t>Абемама</t>
+  </si>
+  <si>
+    <t>Остров Рождества</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Île Christmas</t>
+  </si>
+  <si>
+    <t>Isola Christmas</t>
+  </si>
+  <si>
+    <t>Молден</t>
+  </si>
+  <si>
+    <t>Науру</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>nr.png</t>
+  </si>
+  <si>
+    <t>-R166.9/166.96/-0.55/-0.49 -JX8.29i -P</t>
+  </si>
+  <si>
+    <t>Анибар</t>
+  </si>
+  <si>
+    <t>Anibare</t>
+  </si>
+  <si>
+    <t>Denigomodu</t>
+  </si>
+  <si>
+    <t>Денигомоду</t>
+  </si>
+  <si>
+    <t>Ewa</t>
+  </si>
+  <si>
+    <t>Ева</t>
+  </si>
+  <si>
+    <t>Anabar</t>
+  </si>
+  <si>
+    <t>Анабар</t>
+  </si>
+  <si>
+    <t>Meneng</t>
+  </si>
+  <si>
+    <t>Мененг</t>
+  </si>
+  <si>
+    <t>Ярен</t>
+  </si>
+  <si>
+    <t>Yaren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1132,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1204,6 +1529,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1698,8 +2024,8 @@
   <dimension ref="A1:O439"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2351,89 +2677,249 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K14" s="12">
+        <f>Лист2!P74</f>
+        <v>1.7394957983193278</v>
+      </c>
+      <c r="L14" s="12">
+        <f>Лист2!Q74</f>
+        <v>1.4355731225296442</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="11"/>
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K15" s="12">
+        <f>Лист2!P80</f>
+        <v>1.2843846949327817</v>
+      </c>
+      <c r="L15" s="12">
+        <f>Лист2!Q80</f>
+        <v>1.6228775692582662</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="11"/>
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K16" s="12">
+        <f>Лист2!P86</f>
+        <v>1.212890625</v>
+      </c>
+      <c r="L16" s="12">
+        <f>Лист2!Q86</f>
+        <v>1.7461538461538462</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="O16" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="11"/>
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="12">
+        <f>Лист2!P92</f>
+        <v>1.1280653950953679</v>
+      </c>
+      <c r="L17" s="12">
+        <f>Лист2!Q92</f>
+        <v>1.4012345679012346</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="11"/>
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K18" s="12">
+        <f>Лист2!P98</f>
+        <v>1.5563909774436091</v>
+      </c>
+      <c r="L18" s="12">
+        <f>Лист2!Q98</f>
+        <v>1.3915708812260537</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="O18" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
@@ -9232,8 +9718,8 @@
   <dimension ref="A1:L637"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12163,424 +12649,1204 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="4"/>
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I74" s="28">
+        <f>Лист2!L74</f>
+        <v>1.8733031674208145</v>
+      </c>
+      <c r="J74" s="28">
+        <f>Лист2!M74</f>
+        <v>2.63953488372093</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L74" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="4"/>
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="I75" s="28">
+        <f>Лист2!L75</f>
+        <v>1.3032528856243442</v>
+      </c>
+      <c r="J75" s="28">
+        <f>Лист2!M75</f>
+        <v>1.1378446115288221</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L75" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="4"/>
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="I76" s="28">
+        <f>Лист2!L76</f>
+        <v>2.4305283757338554</v>
+      </c>
+      <c r="J76" s="28">
+        <f>Лист2!M76</f>
+        <v>2.2643391521197009</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L76" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="4"/>
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="I77" s="28">
+        <f>Лист2!L77</f>
+        <v>25.875</v>
+      </c>
+      <c r="J77" s="28">
+        <f>Лист2!M77</f>
+        <v>13.159420289855072</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L77" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="4"/>
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="I78" s="28">
+        <f>Лист2!L78</f>
+        <v>3.4404432132963989</v>
+      </c>
+      <c r="J78" s="28">
+        <f>Лист2!M78</f>
+        <v>8.7729468599033815</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="4"/>
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I79" s="28">
+        <f>Лист2!L79</f>
+        <v>1.3908174692049271</v>
+      </c>
+      <c r="J79" s="28">
+        <f>Лист2!M79</f>
+        <v>1.8306451612903225</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L79" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="4"/>
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="I80" s="28">
+        <f>Лист2!L80</f>
+        <v>3.338709677419355</v>
+      </c>
+      <c r="J80" s="28">
+        <f>Лист2!M80</f>
+        <v>2.5541490857946556</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L80" s="25">
+        <v>14</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="4"/>
+      <c r="A81" s="10">
+        <v>80</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="I81" s="28">
+        <f>Лист2!L81</f>
+        <v>2.0734557595993324</v>
+      </c>
+      <c r="J81" s="28">
+        <f>Лист2!M81</f>
+        <v>1.4645161290322581</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L81" s="25">
+        <v>14</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="4"/>
+      <c r="A82" s="10">
+        <v>81</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="I82" s="28">
+        <f>Лист2!L82</f>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="J82" s="28">
+        <f>Лист2!M82</f>
+        <v>2.0245261984392418</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L82" s="25">
+        <v>14</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="4"/>
+      <c r="A83" s="10">
+        <v>82</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="I83" s="28">
+        <f>Лист2!L83</f>
+        <v>2.64818763326226</v>
+      </c>
+      <c r="J83" s="28">
+        <f>Лист2!M83</f>
+        <v>2.1339600470035252</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L83" s="25">
+        <v>14</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="4"/>
+      <c r="A84" s="10">
+        <v>83</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="I84" s="28">
+        <f>Лист2!L84</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J84" s="28">
+        <f>Лист2!M84</f>
+        <v>1.5957820738137083</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L84" s="25">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="4"/>
+      <c r="A85" s="10">
+        <v>84</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="I85" s="28">
+        <f>Лист2!L85</f>
+        <v>1.7394957983193278</v>
+      </c>
+      <c r="J85" s="28">
+        <f>Лист2!M85</f>
+        <v>3.9737417943107221</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L85" s="25">
+        <v>14</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="4"/>
+      <c r="A86" s="13">
+        <v>85</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="I86" s="28">
+        <f>Лист2!L86</f>
+        <v>1.6108949416342413</v>
+      </c>
+      <c r="J86" s="28">
+        <f>Лист2!M86</f>
+        <v>2.4607046070460705</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L86" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="4"/>
+      <c r="A87" s="13">
+        <v>86</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I87" s="28">
+        <f>Лист2!L87</f>
+        <v>1.4002254791431792</v>
+      </c>
+      <c r="J87" s="28">
+        <f>Лист2!M87</f>
+        <v>1.3726379440665155</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L87" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="4"/>
+      <c r="A88" s="13">
+        <v>87</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I88" s="28">
+        <f>Лист2!L88</f>
+        <v>1.4927884615384615</v>
+      </c>
+      <c r="J88" s="28">
+        <f>Лист2!M88</f>
+        <v>2.0381593714927049</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L88" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="4"/>
+      <c r="A89" s="13">
+        <v>88</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="I89" s="28">
+        <f>Лист2!L89</f>
+        <v>2.5767634854771786</v>
+      </c>
+      <c r="J89" s="28">
+        <f>Лист2!M89</f>
+        <v>2.7556904400606981</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L89" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="4"/>
+      <c r="A90" s="13">
+        <v>89</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="I90" s="28">
+        <f>Лист2!L90</f>
+        <v>9.5538461538461537</v>
+      </c>
+      <c r="J90" s="28">
+        <f>Лист2!M90</f>
+        <v>3.180385288966725</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="4"/>
+      <c r="A91" s="13">
+        <v>90</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="I91" s="28">
+        <f>Лист2!L91</f>
+        <v>8.8714285714285719</v>
+      </c>
+      <c r="J91" s="28">
+        <f>Лист2!M91</f>
+        <v>4.4184914841849148</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L91" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="4"/>
+      <c r="A92" s="10">
+        <v>91</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="I92" s="28">
+        <f>Лист2!L92</f>
+        <v>6.9</v>
+      </c>
+      <c r="J92" s="28">
+        <f>Лист2!M92</f>
+        <v>19.526881720430108</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L92" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="10"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="4"/>
+      <c r="A93" s="10">
+        <v>92</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="I93" s="28">
+        <f>Лист2!L93</f>
+        <v>1.4113636363636364</v>
+      </c>
+      <c r="J93" s="28">
+        <f>Лист2!M93</f>
+        <v>2.1958887545344621</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L93" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="4"/>
+      <c r="A94" s="10">
+        <v>93</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="I94" s="28">
+        <f>Лист2!L94</f>
+        <v>1.4577464788732395</v>
+      </c>
+      <c r="J94" s="28">
+        <f>Лист2!M94</f>
+        <v>6.5559566787003609</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L94" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="4"/>
+      <c r="A95" s="10">
+        <v>94</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="I95" s="28">
+        <f>Лист2!L95</f>
+        <v>3.5792507204610953</v>
+      </c>
+      <c r="J95" s="28">
+        <f>Лист2!M95</f>
+        <v>13.352941176470589</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L95" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="4"/>
+      <c r="A96" s="10">
+        <v>95</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="I96" s="28">
+        <f>Лист2!L96</f>
+        <v>11.942307692307692</v>
+      </c>
+      <c r="J96" s="28">
+        <f>Лист2!M96</f>
+        <v>1.2026490066225166</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L96" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="4"/>
+      <c r="A97" s="10">
+        <v>96</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="I97" s="28">
+        <f>Лист2!L97</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J97" s="28">
+        <f>Лист2!M97</f>
+        <v>1.1154791154791155</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L97" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="4"/>
+      <c r="A98" s="13">
+        <v>97</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="I98" s="28">
+        <f>Лист2!L98</f>
+        <v>1.2699386503067485</v>
+      </c>
+      <c r="J98" s="28">
+        <f>Лист2!M98</f>
+        <v>2.1091753774680604</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L98" s="25">
+        <v>17</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="4"/>
+      <c r="A99" s="13">
+        <v>98</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="I99" s="28">
+        <f>Лист2!L99</f>
+        <v>6.2412060301507539</v>
+      </c>
+      <c r="J99" s="28">
+        <f>Лист2!M99</f>
+        <v>1.9590075512405609</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L99" s="25">
+        <v>17</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="4"/>
+      <c r="A100" s="13">
+        <v>99</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="I100" s="28">
+        <f>Лист2!L100</f>
+        <v>1.9497645211930925</v>
+      </c>
+      <c r="J100" s="28">
+        <f>Лист2!M100</f>
+        <v>1.3372606774668629</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L100" s="25">
+        <v>17</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="13"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="4"/>
+      <c r="A101" s="13">
+        <v>100</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="I101" s="28">
+        <f>Лист2!L101</f>
+        <v>1.1618334892422826</v>
+      </c>
+      <c r="J101" s="28">
+        <f>Лист2!M101</f>
+        <v>1.4481658692185009</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L101" s="25">
+        <v>17</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="13"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="4"/>
+      <c r="A102" s="13">
+        <v>101</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="I102" s="28">
+        <f>Лист2!L102</f>
+        <v>4.4516129032258061</v>
+      </c>
+      <c r="J102" s="28">
+        <f>Лист2!M102</f>
+        <v>3.4071294559099439</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L102" s="25">
+        <v>17</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="13"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="4"/>
+      <c r="A103" s="13">
+        <v>102</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="I103" s="28">
+        <f>Лист2!L103</f>
+        <v>1.8078602620087336</v>
+      </c>
+      <c r="J103" s="28">
+        <f>Лист2!M103</f>
+        <v>3.8803418803418803</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L103" s="25">
+        <v>17</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
@@ -12594,7 +13860,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="23"/>
-      <c r="L104" s="4"/>
+      <c r="L104" s="25"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
@@ -12608,7 +13874,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="23"/>
-      <c r="L105" s="4"/>
+      <c r="L105" s="25"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
@@ -12622,7 +13888,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="23"/>
-      <c r="L106" s="4"/>
+      <c r="L106" s="25"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
@@ -12636,7 +13902,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="23"/>
-      <c r="L107" s="4"/>
+      <c r="L107" s="25"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
@@ -12650,7 +13916,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="23"/>
-      <c r="L108" s="4"/>
+      <c r="L108" s="25"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
@@ -12664,7 +13930,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="23"/>
-      <c r="L109" s="4"/>
+      <c r="L109" s="25"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
@@ -12678,7 +13944,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="23"/>
-      <c r="L110" s="4"/>
+      <c r="L110" s="25"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
@@ -12692,7 +13958,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="23"/>
-      <c r="L111" s="4"/>
+      <c r="L111" s="25"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
@@ -12706,7 +13972,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="23"/>
-      <c r="L112" s="4"/>
+      <c r="L112" s="25"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
@@ -12720,7 +13986,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="23"/>
-      <c r="L113" s="4"/>
+      <c r="L113" s="25"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
@@ -12734,7 +14000,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="23"/>
-      <c r="L114" s="4"/>
+      <c r="L114" s="25"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
@@ -12748,7 +14014,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="23"/>
-      <c r="L115" s="4"/>
+      <c r="L115" s="25"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
@@ -12762,7 +14028,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="23"/>
-      <c r="L116" s="4"/>
+      <c r="L116" s="25"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
@@ -12776,7 +14042,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="23"/>
-      <c r="L117" s="4"/>
+      <c r="L117" s="25"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
@@ -12790,7 +14056,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="23"/>
-      <c r="L118" s="4"/>
+      <c r="L118" s="25"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
@@ -12804,7 +14070,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="23"/>
-      <c r="L119" s="4"/>
+      <c r="L119" s="25"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
@@ -12818,7 +14084,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="23"/>
-      <c r="L120" s="4"/>
+      <c r="L120" s="25"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
@@ -12832,7 +14098,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="23"/>
-      <c r="L121" s="4"/>
+      <c r="L121" s="25"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
@@ -12846,7 +14112,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="23"/>
-      <c r="L122" s="4"/>
+      <c r="L122" s="25"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
@@ -12860,7 +14126,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="23"/>
-      <c r="L123" s="4"/>
+      <c r="L123" s="25"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
@@ -12874,7 +14140,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="23"/>
-      <c r="L124" s="4"/>
+      <c r="L124" s="25"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
@@ -12888,7 +14154,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="23"/>
-      <c r="L125" s="4"/>
+      <c r="L125" s="25"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
@@ -12902,7 +14168,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="23"/>
-      <c r="L126" s="4"/>
+      <c r="L126" s="25"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
@@ -12916,7 +14182,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="23"/>
-      <c r="L127" s="4"/>
+      <c r="L127" s="25"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
@@ -12930,7 +14196,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="23"/>
-      <c r="L128" s="4"/>
+      <c r="L128" s="25"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
@@ -12944,7 +14210,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="23"/>
-      <c r="L129" s="4"/>
+      <c r="L129" s="25"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
@@ -12958,7 +14224,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="23"/>
-      <c r="L130" s="4"/>
+      <c r="L130" s="25"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
@@ -12972,7 +14238,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="23"/>
-      <c r="L131" s="4"/>
+      <c r="L131" s="25"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
@@ -12986,7 +14252,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="23"/>
-      <c r="L132" s="4"/>
+      <c r="L132" s="25"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
@@ -18995,8 +20261,8 @@
   <dimension ref="A1:Q501"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O69" sqref="O69"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O99" sqref="O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22735,77 +24001,107 @@
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="26">
         <f>Сities!A74</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>159.94999999999999</v>
       </c>
       <c r="C74" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="27">
+        <v>-9.4333333333333336</v>
+      </c>
+      <c r="D74" s="27" t="str">
         <f>Сities!B74</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="17" t="e">
+        <v>Honiara</v>
+      </c>
+      <c r="E74" s="16">
+        <v>-9</v>
+      </c>
+      <c r="F74" s="16">
+        <v>-26</v>
+      </c>
+      <c r="G74" s="16">
+        <v>159</v>
+      </c>
+      <c r="H74" s="16">
+        <v>57</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="J74" s="16">
+        <v>663</v>
+      </c>
+      <c r="K74" s="16">
+        <v>1128</v>
+      </c>
+      <c r="L74" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.8733031674208145</v>
       </c>
       <c r="M74" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="17" t="e">
+        <v>2.63953488372093</v>
+      </c>
+      <c r="N74" s="16">
+        <v>714</v>
+      </c>
+      <c r="O74" s="16">
+        <v>551</v>
+      </c>
+      <c r="P74" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1.7394957983193278</v>
       </c>
       <c r="Q74" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>1.4355731225296442</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="26">
         <f>Сities!A75</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>165.83333333333334</v>
       </c>
       <c r="C75" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="27">
+        <v>-10.716666666666667</v>
+      </c>
+      <c r="D75" s="27" t="str">
         <f>Сities!B75</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+        <v>Lata</v>
+      </c>
+      <c r="E75" s="16">
+        <v>-10</v>
+      </c>
+      <c r="F75" s="16">
+        <v>-43</v>
+      </c>
+      <c r="G75" s="16">
+        <v>165</v>
+      </c>
+      <c r="H75" s="16">
+        <v>50</v>
+      </c>
       <c r="I75" s="14"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="17" t="e">
+      <c r="J75" s="16">
+        <v>953</v>
+      </c>
+      <c r="K75" s="16">
+        <v>220</v>
+      </c>
+      <c r="L75" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.3032528856243442</v>
       </c>
       <c r="M75" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.1378446115288221</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -22815,34 +24111,46 @@
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="26">
         <f>Сities!A76</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="C76" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D76" s="27">
+        <v>-8.7666666666666675</v>
+      </c>
+      <c r="D76" s="27" t="str">
         <f>Сities!B76</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+        <v>Auki</v>
+      </c>
+      <c r="E76" s="16">
+        <v>-8</v>
+      </c>
+      <c r="F76" s="16">
+        <v>-46</v>
+      </c>
+      <c r="G76" s="16">
+        <v>160</v>
+      </c>
+      <c r="H76" s="16">
+        <v>42</v>
+      </c>
       <c r="I76" s="14"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="17" t="e">
+      <c r="J76" s="16">
+        <v>511</v>
+      </c>
+      <c r="K76" s="16">
+        <v>1014</v>
+      </c>
+      <c r="L76" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.4305283757338554</v>
       </c>
       <c r="M76" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2.2643391521197009</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -22852,34 +24160,46 @@
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="26">
         <f>Сities!A77</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>156.4</v>
       </c>
       <c r="C77" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D77" s="27">
+        <v>-6.7166666666666668</v>
+      </c>
+      <c r="D77" s="27" t="str">
         <f>Сities!B77</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+        <v>Taro</v>
+      </c>
+      <c r="E77" s="16">
+        <v>-6</v>
+      </c>
+      <c r="F77" s="16">
+        <v>-43</v>
+      </c>
+      <c r="G77" s="16">
+        <v>156</v>
+      </c>
+      <c r="H77" s="16">
+        <v>24</v>
+      </c>
       <c r="I77" s="14"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="17" t="e">
+      <c r="J77" s="16">
+        <v>48</v>
+      </c>
+      <c r="K77" s="16">
+        <v>1678</v>
+      </c>
+      <c r="L77" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>25.875</v>
       </c>
       <c r="M77" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>13.159420289855072</v>
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -22889,34 +24209,46 @@
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="26">
         <f>Сities!A78</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>156.85</v>
       </c>
       <c r="C78" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D78" s="27">
+        <v>-8.1</v>
+      </c>
+      <c r="D78" s="27" t="str">
         <f>Сities!B78</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
+        <v>Gizo</v>
+      </c>
+      <c r="E78" s="16">
+        <v>-8</v>
+      </c>
+      <c r="F78" s="16">
+        <v>-6</v>
+      </c>
+      <c r="G78" s="16">
+        <v>156</v>
+      </c>
+      <c r="H78" s="16">
+        <v>51</v>
+      </c>
       <c r="I78" s="14"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="17" t="e">
+      <c r="J78" s="16">
+        <v>361</v>
+      </c>
+      <c r="K78" s="16">
+        <v>1609</v>
+      </c>
+      <c r="L78" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.4404432132963989</v>
       </c>
       <c r="M78" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>8.7729468599033815</v>
       </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -22926,34 +24258,46 @@
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="26">
         <f>Сities!A79</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>161.91666666666666</v>
       </c>
       <c r="C79" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D79" s="27">
+        <v>-10.45</v>
+      </c>
+      <c r="D79" s="27" t="str">
         <f>Сities!B79</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
+        <v>Kirakira</v>
+      </c>
+      <c r="E79" s="16">
+        <v>-10</v>
+      </c>
+      <c r="F79" s="16">
+        <v>-27</v>
+      </c>
+      <c r="G79" s="16">
+        <v>161</v>
+      </c>
+      <c r="H79" s="16">
+        <v>55</v>
+      </c>
       <c r="I79" s="14"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="17" t="e">
+      <c r="J79" s="16">
+        <v>893</v>
+      </c>
+      <c r="K79" s="16">
+        <v>824</v>
+      </c>
+      <c r="L79" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.3908174692049271</v>
       </c>
       <c r="M79" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.8306451612903225</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -22963,1034 +24307,1178 @@
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="25">
         <f>Сities!A80</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>178.43333333333334</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D80" s="1">
+        <v>-18.133333333333333</v>
+      </c>
+      <c r="D80" s="1" t="str">
         <f>Сities!B80</f>
-        <v>0</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="5" t="e">
+        <v>Suva</v>
+      </c>
+      <c r="E80" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F80" s="4">
+        <v>-8</v>
+      </c>
+      <c r="G80" s="4">
+        <v>178</v>
+      </c>
+      <c r="H80" s="4">
+        <v>26</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="J80" s="4">
+        <v>372</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1105</v>
+      </c>
+      <c r="L80" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.338709677419355</v>
       </c>
       <c r="M80" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="5" t="e">
+        <v>2.5541490857946556</v>
+      </c>
+      <c r="N80" s="4">
+        <v>967</v>
+      </c>
+      <c r="O80" s="4">
+        <v>697</v>
+      </c>
+      <c r="P80" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1.2843846949327817</v>
       </c>
       <c r="Q80" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>1.6228775692582662</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="25">
         <f>Сities!A81</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>179.36666666666667</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D81" s="1">
+        <v>-16.433333333333334</v>
+      </c>
+      <c r="D81" s="1" t="str">
         <f>Сities!B81</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+        <v>Labasa</v>
+      </c>
+      <c r="E81" s="4">
+        <v>-16</v>
+      </c>
+      <c r="F81" s="4">
+        <v>-26</v>
+      </c>
+      <c r="G81" s="4">
+        <v>179</v>
+      </c>
+      <c r="H81" s="4">
+        <v>22</v>
+      </c>
       <c r="I81" s="14"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="5" t="e">
+      <c r="J81" s="4">
+        <v>599</v>
+      </c>
+      <c r="K81" s="4">
+        <v>576</v>
+      </c>
+      <c r="L81" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.0734557595993324</v>
       </c>
       <c r="M81" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.4645161290322581</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q81" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="25">
         <f>Сities!A82</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>177.68333333333334</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
+        <v>-17.533333333333335</v>
+      </c>
+      <c r="D82" s="1" t="str">
         <f>Сities!B82</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+        <v>Ba</v>
+      </c>
+      <c r="E82" s="4">
+        <v>-17</v>
+      </c>
+      <c r="F82" s="4">
+        <v>-32</v>
+      </c>
+      <c r="G82" s="4">
+        <v>177</v>
+      </c>
+      <c r="H82" s="4">
+        <v>41</v>
+      </c>
       <c r="I82" s="14"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="5" t="e">
+      <c r="J82" s="4">
+        <v>189</v>
+      </c>
+      <c r="K82" s="4">
+        <v>919</v>
+      </c>
+      <c r="L82" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="M82" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2.0245261984392418</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
-      <c r="P82" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q82" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="25">
         <f>Сities!A83</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>178.83333333333334</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D83" s="1">
+        <v>-17.683333333333334</v>
+      </c>
+      <c r="D83" s="1" t="str">
         <f>Сities!B83</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+        <v>Levuka</v>
+      </c>
+      <c r="E83" s="4">
+        <v>-17</v>
+      </c>
+      <c r="F83" s="4">
+        <v>-41</v>
+      </c>
+      <c r="G83" s="4">
+        <v>178</v>
+      </c>
+      <c r="H83" s="4">
+        <v>50</v>
+      </c>
       <c r="I83" s="14"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="5" t="e">
+      <c r="J83" s="4">
+        <v>469</v>
+      </c>
+      <c r="K83" s="4">
+        <v>965</v>
+      </c>
+      <c r="L83" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.64818763326226</v>
       </c>
       <c r="M83" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2.1339600470035252</v>
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
-      <c r="P83" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q83" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="25">
         <f>Сities!A84</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>179.36666666666667</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D84" s="1">
+        <v>-16.75</v>
+      </c>
+      <c r="D84" s="1" t="str">
         <f>Сities!B84</f>
-        <v>0</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+        <v>Savusavu</v>
+      </c>
+      <c r="E84" s="4">
+        <v>-16</v>
+      </c>
+      <c r="F84" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G84" s="4">
+        <v>179</v>
+      </c>
+      <c r="H84" s="4">
+        <v>22</v>
+      </c>
       <c r="I84" s="14"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="5" t="e">
+      <c r="J84" s="4">
+        <v>600</v>
+      </c>
+      <c r="K84" s="4">
+        <v>678</v>
+      </c>
+      <c r="L84" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="M84" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.5957820738137083</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
-      <c r="P84" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q84" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="25">
         <f>Сities!A85</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>179.83333333333334</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D85" s="1">
+        <v>-18.95</v>
+      </c>
+      <c r="D85" s="1" t="str">
         <f>Сities!B85</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+        <v>Totoya</v>
+      </c>
+      <c r="E85" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F85" s="4">
+        <v>-57</v>
+      </c>
+      <c r="G85" s="4">
+        <v>179</v>
+      </c>
+      <c r="H85" s="4">
+        <v>50</v>
+      </c>
       <c r="I85" s="14"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="5" t="e">
+      <c r="J85" s="4">
+        <v>714</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1359</v>
+      </c>
+      <c r="L85" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.7394957983193278</v>
       </c>
       <c r="M85" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3.9737417943107221</v>
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="5" t="e">
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="26">
+        <f>Сities!A86</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="17">
+        <f t="shared" si="6"/>
+        <v>139.68333333333334</v>
+      </c>
+      <c r="C86" s="17">
+        <f t="shared" si="7"/>
+        <v>35.68333333333333</v>
+      </c>
+      <c r="D86" s="27" t="str">
+        <f>Сities!B86</f>
+        <v>Tokyo</v>
+      </c>
+      <c r="E86" s="16">
+        <v>35</v>
+      </c>
+      <c r="F86" s="16">
+        <v>41</v>
+      </c>
+      <c r="G86" s="16">
+        <v>139</v>
+      </c>
+      <c r="H86" s="16">
+        <v>41</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J86" s="16">
+        <v>771</v>
+      </c>
+      <c r="K86" s="16">
+        <v>1078</v>
+      </c>
+      <c r="L86" s="17">
+        <f t="shared" si="8"/>
+        <v>1.6108949416342413</v>
+      </c>
+      <c r="M86" s="17">
+        <f t="shared" si="9"/>
+        <v>2.4607046070460705</v>
+      </c>
+      <c r="N86" s="16">
+        <v>1024</v>
+      </c>
+      <c r="O86" s="16">
+        <v>776</v>
+      </c>
+      <c r="P86" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q85" s="5">
+        <v>1.212890625</v>
+      </c>
+      <c r="Q86" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="25">
-        <f>Сities!A86</f>
-        <v>0</v>
-      </c>
-      <c r="B86" s="5">
+        <v>1.7461538461538462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="26">
+        <f>Сities!A87</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C86" s="5">
+        <v>141.35</v>
+      </c>
+      <c r="C87" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
-        <f>Сities!B86</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="5" t="e">
+        <v>43.06666666666667</v>
+      </c>
+      <c r="D87" s="27" t="str">
+        <f>Сities!B87</f>
+        <v>Sapporo</v>
+      </c>
+      <c r="E87" s="16">
+        <v>43</v>
+      </c>
+      <c r="F87" s="16">
+        <v>4</v>
+      </c>
+      <c r="G87" s="16">
+        <v>141</v>
+      </c>
+      <c r="H87" s="16">
+        <v>21</v>
+      </c>
+      <c r="I87" s="14"/>
+      <c r="J87" s="16">
+        <v>887</v>
+      </c>
+      <c r="K87" s="16">
+        <v>493</v>
+      </c>
+      <c r="L87" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M86" s="5">
+        <v>1.4002254791431792</v>
+      </c>
+      <c r="M87" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q86" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="25">
-        <f>Сities!A87</f>
-        <v>0</v>
-      </c>
-      <c r="B87" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C87" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
-        <f>Сities!B87</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M87" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.3726379440665155</v>
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q87" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" s="25">
+      <c r="A88" s="26">
         <f>Сities!A88</f>
-        <v>0</v>
-      </c>
-      <c r="B88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C88" s="5">
+        <v>140.56666666666666</v>
+      </c>
+      <c r="C88" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D88" s="1">
+        <v>37.616666666666667</v>
+      </c>
+      <c r="D88" s="27" t="str">
         <f>Сities!B88</f>
-        <v>0</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+        <v>Fukushima</v>
+      </c>
+      <c r="E88" s="16">
+        <v>37</v>
+      </c>
+      <c r="F88" s="16">
+        <v>37</v>
+      </c>
+      <c r="G88" s="16">
+        <v>140</v>
+      </c>
+      <c r="H88" s="16">
+        <v>34</v>
+      </c>
       <c r="I88" s="14"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="5" t="e">
+      <c r="J88" s="16">
+        <v>832</v>
+      </c>
+      <c r="K88" s="16">
+        <v>925</v>
+      </c>
+      <c r="L88" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M88" s="5">
+        <v>1.4927884615384615</v>
+      </c>
+      <c r="M88" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2.0381593714927049</v>
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
-      <c r="P88" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q88" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="25">
+      <c r="A89" s="26">
         <f>Сities!A89</f>
-        <v>0</v>
-      </c>
-      <c r="B89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C89" s="5">
+        <v>135.5</v>
+      </c>
+      <c r="C89" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D89" s="1">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D89" s="27" t="str">
         <f>Сities!B89</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+        <v>Osaka</v>
+      </c>
+      <c r="E89" s="16">
+        <v>34</v>
+      </c>
+      <c r="F89" s="16">
+        <v>42</v>
+      </c>
+      <c r="G89" s="16">
+        <v>135</v>
+      </c>
+      <c r="H89" s="16">
+        <v>30</v>
+      </c>
       <c r="I89" s="14"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="5" t="e">
+      <c r="J89" s="16">
+        <v>482</v>
+      </c>
+      <c r="K89" s="16">
+        <v>1157</v>
+      </c>
+      <c r="L89" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M89" s="5">
+        <v>2.5767634854771786</v>
+      </c>
+      <c r="M89" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2.7556904400606981</v>
       </c>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
-      <c r="P89" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q89" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="25">
+      <c r="A90" s="26">
         <f>Сities!A90</f>
-        <v>0</v>
-      </c>
-      <c r="B90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C90" s="5">
+        <v>130.4</v>
+      </c>
+      <c r="C90" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
+        <v>33.583333333333336</v>
+      </c>
+      <c r="D90" s="27" t="str">
         <f>Сities!B90</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+        <v>Fukuoka</v>
+      </c>
+      <c r="E90" s="16">
+        <v>33</v>
+      </c>
+      <c r="F90" s="16">
+        <v>35</v>
+      </c>
+      <c r="G90" s="16">
+        <v>130</v>
+      </c>
+      <c r="H90" s="16">
+        <v>24</v>
+      </c>
       <c r="I90" s="14"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="5" t="e">
+      <c r="J90" s="16">
+        <v>130</v>
+      </c>
+      <c r="K90" s="16">
+        <v>1245</v>
+      </c>
+      <c r="L90" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M90" s="5">
+        <v>9.5538461538461537</v>
+      </c>
+      <c r="M90" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3.180385288966725</v>
       </c>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
-      <c r="P90" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q90" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="25">
+      <c r="A91" s="26">
         <f>Сities!A91</f>
-        <v>0</v>
-      </c>
-      <c r="B91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C91" s="5">
+        <v>130.55000000000001</v>
+      </c>
+      <c r="C91" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="D91" s="27" t="str">
         <f>Сities!B91</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+        <v>Kagoshima</v>
+      </c>
+      <c r="E91" s="16">
+        <v>31</v>
+      </c>
+      <c r="F91" s="16">
+        <v>36</v>
+      </c>
+      <c r="G91" s="16">
+        <v>130</v>
+      </c>
+      <c r="H91" s="16">
+        <v>33</v>
+      </c>
       <c r="I91" s="14"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="5" t="e">
+      <c r="J91" s="16">
+        <v>140</v>
+      </c>
+      <c r="K91" s="16">
+        <v>1405</v>
+      </c>
+      <c r="L91" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M91" s="5">
+        <v>8.8714285714285719</v>
+      </c>
+      <c r="M91" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4.4184914841849148</v>
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q91" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="25">
         <f>Сities!A92</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>172.96666666666667</v>
       </c>
       <c r="C92" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D92" s="1" t="str">
         <f>Сities!B92</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="5" t="e">
+        <v>South Tarawa</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>24</v>
+      </c>
+      <c r="G92" s="4">
+        <v>172</v>
+      </c>
+      <c r="H92" s="4">
+        <v>58</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="J92" s="4">
+        <v>180</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1723</v>
+      </c>
+      <c r="L92" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>6.9</v>
       </c>
       <c r="M92" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="5" t="e">
+        <v>19.526881720430108</v>
+      </c>
+      <c r="N92" s="4">
+        <v>1101</v>
+      </c>
+      <c r="O92" s="4">
+        <v>520</v>
+      </c>
+      <c r="P92" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1.1280653950953679</v>
       </c>
       <c r="Q92" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>1.4012345679012346</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="25">
         <f>Сities!A93</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>188.31666666666666</v>
       </c>
       <c r="C93" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D93">
+        <v>-2.8166666666666664</v>
+      </c>
+      <c r="D93" s="1" t="str">
         <f>Сities!B93</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+        <v>Kanton</v>
+      </c>
+      <c r="E93" s="4">
+        <v>-2</v>
+      </c>
+      <c r="F93" s="4">
+        <v>-49</v>
+      </c>
+      <c r="G93" s="4">
+        <v>188</v>
+      </c>
+      <c r="H93" s="4">
+        <v>19</v>
+      </c>
       <c r="I93" s="14"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="5" t="e">
+      <c r="J93" s="4">
+        <v>880</v>
+      </c>
+      <c r="K93" s="4">
+        <v>989</v>
+      </c>
+      <c r="L93" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.4113636363636364</v>
       </c>
       <c r="M93" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2.1958887545344621</v>
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-      <c r="P93" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q93" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="25">
         <f>Сities!A94</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>176.83333333333334</v>
       </c>
       <c r="C94" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D94">
+        <v>-2.65</v>
+      </c>
+      <c r="D94" s="1" t="str">
         <f>Сities!B94</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+        <v>Arorae</v>
+      </c>
+      <c r="E94" s="4">
+        <v>-2</v>
+      </c>
+      <c r="F94" s="4">
+        <v>-39</v>
+      </c>
+      <c r="G94" s="4">
+        <v>176</v>
+      </c>
+      <c r="H94" s="4">
+        <v>50</v>
+      </c>
       <c r="I94" s="14"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="5" t="e">
+      <c r="J94" s="4">
+        <v>852</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1539</v>
+      </c>
+      <c r="L94" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.4577464788732395</v>
       </c>
       <c r="M94" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6.5559566787003609</v>
       </c>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
-      <c r="P94" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q94" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="25">
         <f>Сities!A95</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>173.83333333333334</v>
       </c>
       <c r="C95" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D95">
+        <v>0.4</v>
+      </c>
+      <c r="D95" s="1" t="str">
         <f>Сities!B95</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+        <v>Abemama</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>24</v>
+      </c>
+      <c r="G95" s="4">
+        <v>173</v>
+      </c>
+      <c r="H95" s="4">
+        <v>50</v>
+      </c>
       <c r="I95" s="14"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="5" t="e">
+      <c r="J95" s="4">
+        <v>347</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1680</v>
+      </c>
+      <c r="L95" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.5792507204610953</v>
       </c>
       <c r="M95" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>13.352941176470589</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="P95" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q95" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="25">
         <f>Сities!A96</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>202.6</v>
       </c>
       <c r="C96" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D96">
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="D96" s="1" t="str">
         <f>Сities!B96</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+        <v>Christmas Island</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="F96" s="4">
+        <v>52</v>
+      </c>
+      <c r="G96" s="4">
+        <v>202</v>
+      </c>
+      <c r="H96" s="4">
+        <v>36</v>
+      </c>
       <c r="I96" s="14"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="5" t="e">
+      <c r="J96" s="4">
+        <v>104</v>
+      </c>
+      <c r="K96" s="4">
+        <v>306</v>
+      </c>
+      <c r="L96" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>11.942307692307692</v>
       </c>
       <c r="M96" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.2026490066225166</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
-      <c r="P96" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q96" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="25">
         <f>Сities!A97</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>205.06666666666666</v>
       </c>
       <c r="C97" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D97">
+        <v>-4.0166666666666666</v>
+      </c>
+      <c r="D97" s="1" t="str">
         <f>Сities!B97</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+        <v>Malden</v>
+      </c>
+      <c r="E97" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F97" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>205</v>
+      </c>
+      <c r="H97" s="4">
+        <v>4</v>
+      </c>
       <c r="I97" s="14"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="5" t="e">
+      <c r="J97" s="4">
+        <v>1080</v>
+      </c>
+      <c r="K97" s="4">
+        <v>188</v>
+      </c>
+      <c r="L97" s="5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M97" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.1154791154791155</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
-      <c r="P97" s="5" t="e">
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="26">
+        <f>Сities!A98</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="27" t="str">
+        <f>Сities!B98</f>
+        <v>Anibare</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="J98" s="16">
+        <v>978</v>
+      </c>
+      <c r="K98" s="16">
+        <v>955</v>
+      </c>
+      <c r="L98" s="17">
+        <f t="shared" si="8"/>
+        <v>1.2699386503067485</v>
+      </c>
+      <c r="M98" s="17">
+        <f t="shared" si="9"/>
+        <v>2.1091753774680604</v>
+      </c>
+      <c r="N98" s="16">
+        <v>798</v>
+      </c>
+      <c r="O98" s="16">
+        <v>511</v>
+      </c>
+      <c r="P98" s="17">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q97" s="5">
+        <v>1.5563909774436091</v>
+      </c>
+      <c r="Q98" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="25">
-        <f>Сities!A98</f>
-        <v>0</v>
-      </c>
-      <c r="B98" s="5">
+        <v>1.3915708812260537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="26">
+        <f>Сities!A99</f>
+        <v>98</v>
+      </c>
+      <c r="B99" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C99" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D98">
-        <f>Сities!B98</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="5" t="e">
+      <c r="D99" s="27" t="str">
+        <f>Сities!B99</f>
+        <v>Denigomodu</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="16">
+        <v>199</v>
+      </c>
+      <c r="K99" s="16">
+        <v>889</v>
+      </c>
+      <c r="L99" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M98" s="5">
+        <v>6.2412060301507539</v>
+      </c>
+      <c r="M99" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q98" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="25">
-        <f>Сities!A99</f>
-        <v>0</v>
-      </c>
-      <c r="B99" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C99" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <f>Сities!B99</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M99" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.9590075512405609</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
-      <c r="P99" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q99" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="25">
+      <c r="A100" s="26">
         <f>Сities!A100</f>
-        <v>0</v>
-      </c>
-      <c r="B100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="27" t="str">
         <f>Сities!B100</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+        <v>Ewa</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="29"/>
       <c r="I100" s="14"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="5" t="e">
+      <c r="J100" s="16">
+        <v>637</v>
+      </c>
+      <c r="K100" s="16">
+        <v>458</v>
+      </c>
+      <c r="L100" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M100" s="5">
+        <v>1.9497645211930925</v>
+      </c>
+      <c r="M100" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.3372606774668629</v>
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q100" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="25">
+      <c r="A101" s="26">
         <f>Сities!A101</f>
-        <v>0</v>
-      </c>
-      <c r="B101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="27" t="str">
         <f>Сities!B101</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+        <v>Anabar</v>
+      </c>
+      <c r="E101" s="16"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="29"/>
       <c r="I101" s="14"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="5" t="e">
+      <c r="J101" s="16">
+        <v>1069</v>
+      </c>
+      <c r="K101" s="16">
+        <v>562</v>
+      </c>
+      <c r="L101" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M101" s="5">
+        <v>1.1618334892422826</v>
+      </c>
+      <c r="M101" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.4481658692185009</v>
       </c>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q101" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="25">
+      <c r="A102" s="26">
         <f>Сities!A102</f>
-        <v>0</v>
-      </c>
-      <c r="B102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="27" t="str">
         <f>Сities!B102</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+        <v>Yaren</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="29"/>
       <c r="I102" s="14"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="5" t="e">
+      <c r="J102" s="16">
+        <v>279</v>
+      </c>
+      <c r="K102" s="16">
+        <v>1283</v>
+      </c>
+      <c r="L102" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M102" s="5">
+        <v>4.4516129032258061</v>
+      </c>
+      <c r="M102" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3.4071294559099439</v>
       </c>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
-      <c r="P102" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q102" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="25">
+      <c r="A103" s="26">
         <f>Сities!A103</f>
-        <v>0</v>
-      </c>
-      <c r="B103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="27" t="str">
         <f>Сities!B103</f>
-        <v>0</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+        <v>Meneng</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="29"/>
       <c r="I103" s="14"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="5" t="e">
+      <c r="J103" s="16">
+        <v>687</v>
+      </c>
+      <c r="K103" s="16">
+        <v>1348</v>
+      </c>
+      <c r="L103" s="17">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M103" s="5">
+        <v>1.8078602620087336</v>
+      </c>
+      <c r="M103" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3.8803418803418803</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-      <c r="P103" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q103" s="5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="25">
@@ -24005,7 +25493,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <f>Сities!B104</f>
         <v>0</v>
       </c>
@@ -24048,7 +25536,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <f>Сities!B105</f>
         <v>0</v>
       </c>
@@ -24091,7 +25579,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <f>Сities!B106</f>
         <v>0</v>
       </c>
@@ -24134,7 +25622,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <f>Сities!B107</f>
         <v>0</v>
       </c>
@@ -24177,7 +25665,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <f>Сities!B108</f>
         <v>0</v>
       </c>
@@ -24220,7 +25708,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <f>Сities!B109</f>
         <v>0</v>
       </c>
@@ -24263,7 +25751,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <f>Сities!B110</f>
         <v>0</v>
       </c>
@@ -24306,7 +25794,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <f>Сities!B111</f>
         <v>0</v>
       </c>
@@ -24349,7 +25837,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <f>Сities!B112</f>
         <v>0</v>
       </c>
@@ -24392,7 +25880,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <f>Сities!B113</f>
         <v>0</v>
       </c>
@@ -24435,7 +25923,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <f>Сities!B114</f>
         <v>0</v>
       </c>
@@ -24478,7 +25966,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <f>Сities!B115</f>
         <v>0</v>
       </c>
@@ -24521,7 +26009,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <f>Сities!B116</f>
         <v>0</v>
       </c>
@@ -24564,7 +26052,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <f>Сities!B117</f>
         <v>0</v>
       </c>
@@ -24607,7 +26095,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <f>Сities!B118</f>
         <v>0</v>
       </c>
@@ -24650,7 +26138,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <f>Сities!B119</f>
         <v>0</v>
       </c>
@@ -24693,7 +26181,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <f>Сities!B120</f>
         <v>0</v>
       </c>
@@ -24736,7 +26224,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <f>Сities!B121</f>
         <v>0</v>
       </c>
@@ -24779,7 +26267,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <f>Сities!B122</f>
         <v>0</v>
       </c>
@@ -24822,7 +26310,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <f>Сities!B123</f>
         <v>0</v>
       </c>
@@ -24865,7 +26353,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <f>Сities!B124</f>
         <v>0</v>
       </c>
@@ -24908,7 +26396,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <f>Сities!B125</f>
         <v>0</v>
       </c>
@@ -24951,7 +26439,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <f>Сities!B126</f>
         <v>0</v>
       </c>
@@ -24994,7 +26482,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <f>Сities!B127</f>
         <v>0</v>
       </c>
@@ -25037,7 +26525,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <f>Сities!B128</f>
         <v>0</v>
       </c>
@@ -25080,7 +26568,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <f>Сities!B129</f>
         <v>0</v>
       </c>
@@ -25123,7 +26611,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <f>Сities!B130</f>
         <v>0</v>
       </c>
@@ -25166,7 +26654,7 @@
         <f t="shared" ref="C131:C194" si="13">E131+F131/60</f>
         <v>0</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <f>Сities!B131</f>
         <v>0</v>
       </c>
@@ -25209,7 +26697,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <f>Сities!B132</f>
         <v>0</v>
       </c>
@@ -25252,7 +26740,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <f>Сities!B133</f>
         <v>0</v>
       </c>
@@ -25295,7 +26783,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <f>Сities!B134</f>
         <v>0</v>
       </c>
@@ -25338,7 +26826,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <f>Сities!B135</f>
         <v>0</v>
       </c>
@@ -25381,7 +26869,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <f>Сities!B136</f>
         <v>0</v>
       </c>
@@ -25424,7 +26912,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <f>Сities!B137</f>
         <v>0</v>
       </c>
@@ -25467,7 +26955,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <f>Сities!B138</f>
         <v>0</v>
       </c>
@@ -25510,7 +26998,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <f>Сities!B139</f>
         <v>0</v>
       </c>
@@ -25553,7 +27041,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <f>Сities!B140</f>
         <v>0</v>
       </c>
@@ -25596,7 +27084,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <f>Сities!B141</f>
         <v>0</v>
       </c>
@@ -25639,7 +27127,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <f>Сities!B142</f>
         <v>0</v>
       </c>
@@ -25682,7 +27170,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <f>Сities!B143</f>
         <v>0</v>
       </c>
@@ -25725,7 +27213,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <f>Сities!B144</f>
         <v>0</v>
       </c>
@@ -25768,7 +27256,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <f>Сities!B145</f>
         <v>0</v>
       </c>
@@ -25811,7 +27299,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <f>Сities!B146</f>
         <v>0</v>
       </c>
@@ -25854,7 +27342,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <f>Сities!B147</f>
         <v>0</v>
       </c>
@@ -25897,7 +27385,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <f>Сities!B148</f>
         <v>0</v>
       </c>
@@ -25940,7 +27428,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <f>Сities!B149</f>
         <v>0</v>
       </c>
@@ -25983,7 +27471,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <f>Сities!B150</f>
         <v>0</v>
       </c>
@@ -26026,7 +27514,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <f>Сities!B151</f>
         <v>0</v>
       </c>
@@ -26069,7 +27557,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <f>Сities!B152</f>
         <v>0</v>
       </c>
@@ -26112,7 +27600,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <f>Сities!B153</f>
         <v>0</v>
       </c>
@@ -26155,7 +27643,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <f>Сities!B154</f>
         <v>0</v>
       </c>
@@ -26198,7 +27686,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <f>Сities!B155</f>
         <v>0</v>
       </c>
@@ -26241,7 +27729,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <f>Сities!B156</f>
         <v>0</v>
       </c>
@@ -26284,7 +27772,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <f>Сities!B157</f>
         <v>0</v>
       </c>
@@ -26327,7 +27815,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <f>Сities!B158</f>
         <v>0</v>
       </c>
@@ -26370,7 +27858,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <f>Сities!B159</f>
         <v>0</v>
       </c>
@@ -26413,7 +27901,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <f>Сities!B160</f>
         <v>0</v>
       </c>
@@ -26456,7 +27944,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <f>Сities!B161</f>
         <v>0</v>
       </c>
@@ -26499,7 +27987,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <f>Сities!B162</f>
         <v>0</v>
       </c>
@@ -26542,7 +28030,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <f>Сities!B163</f>
         <v>0</v>
       </c>
@@ -26585,7 +28073,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <f>Сities!B164</f>
         <v>0</v>
       </c>
@@ -26628,7 +28116,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <f>Сities!B165</f>
         <v>0</v>
       </c>
@@ -26671,7 +28159,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <f>Сities!B166</f>
         <v>0</v>
       </c>
@@ -26714,7 +28202,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <f>Сities!B167</f>
         <v>0</v>
       </c>
@@ -26757,7 +28245,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <f>Сities!B168</f>
         <v>0</v>
       </c>
@@ -26800,7 +28288,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <f>Сities!B169</f>
         <v>0</v>
       </c>
@@ -26843,7 +28331,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <f>Сities!B170</f>
         <v>0</v>
       </c>
@@ -26886,7 +28374,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <f>Сities!B171</f>
         <v>0</v>
       </c>
@@ -26929,7 +28417,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <f>Сities!B172</f>
         <v>0</v>
       </c>
@@ -26972,7 +28460,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <f>Сities!B173</f>
         <v>0</v>
       </c>
@@ -27015,7 +28503,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <f>Сities!B174</f>
         <v>0</v>
       </c>
@@ -27058,7 +28546,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <f>Сities!B175</f>
         <v>0</v>
       </c>
@@ -27101,7 +28589,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <f>Сities!B176</f>
         <v>0</v>
       </c>
@@ -27144,7 +28632,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <f>Сities!B177</f>
         <v>0</v>
       </c>
@@ -27187,7 +28675,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <f>Сities!B178</f>
         <v>0</v>
       </c>
@@ -27230,7 +28718,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <f>Сities!B179</f>
         <v>0</v>
       </c>
@@ -27273,7 +28761,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <f>Сities!B180</f>
         <v>0</v>
       </c>
@@ -27316,7 +28804,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <f>Сities!B181</f>
         <v>0</v>
       </c>
@@ -27359,7 +28847,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <f>Сities!B182</f>
         <v>0</v>
       </c>
@@ -27402,7 +28890,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <f>Сities!B183</f>
         <v>0</v>
       </c>
@@ -27445,7 +28933,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <f>Сities!B184</f>
         <v>0</v>
       </c>
@@ -27488,7 +28976,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="1">
         <f>Сities!B185</f>
         <v>0</v>
       </c>
@@ -27531,7 +29019,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <f>Сities!B186</f>
         <v>0</v>
       </c>
@@ -27574,7 +29062,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <f>Сities!B187</f>
         <v>0</v>
       </c>
@@ -27617,7 +29105,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <f>Сities!B188</f>
         <v>0</v>
       </c>
@@ -27660,7 +29148,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <f>Сities!B189</f>
         <v>0</v>
       </c>
@@ -27703,7 +29191,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <f>Сities!B190</f>
         <v>0</v>
       </c>
@@ -27746,7 +29234,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <f>Сities!B191</f>
         <v>0</v>
       </c>
@@ -27789,7 +29277,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <f>Сities!B192</f>
         <v>0</v>
       </c>
@@ -27832,7 +29320,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <f>Сities!B193</f>
         <v>0</v>
       </c>
@@ -27875,7 +29363,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <f>Сities!B194</f>
         <v>0</v>
       </c>
@@ -27918,7 +29406,7 @@
         <f t="shared" ref="C195:C258" si="19">E195+F195/60</f>
         <v>0</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <f>Сities!B195</f>
         <v>0</v>
       </c>
@@ -27961,7 +29449,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <f>Сities!B196</f>
         <v>0</v>
       </c>
@@ -28004,7 +29492,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <f>Сities!B197</f>
         <v>0</v>
       </c>
@@ -28047,7 +29535,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <f>Сities!B198</f>
         <v>0</v>
       </c>
@@ -28090,7 +29578,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <f>Сities!B199</f>
         <v>0</v>
       </c>
@@ -28133,7 +29621,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <f>Сities!B200</f>
         <v>0</v>
       </c>
@@ -28176,7 +29664,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <f>Сities!B201</f>
         <v>0</v>
       </c>
@@ -28219,7 +29707,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <f>Сities!B202</f>
         <v>0</v>
       </c>
@@ -28262,7 +29750,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <f>Сities!B203</f>
         <v>0</v>
       </c>
@@ -28305,7 +29793,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <f>Сities!B204</f>
         <v>0</v>
       </c>
@@ -28348,7 +29836,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <f>Сities!B205</f>
         <v>0</v>
       </c>
@@ -28391,7 +29879,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <f>Сities!B206</f>
         <v>0</v>
       </c>
@@ -28434,7 +29922,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <f>Сities!B207</f>
         <v>0</v>
       </c>
@@ -28477,7 +29965,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <f>Сities!B208</f>
         <v>0</v>
       </c>
@@ -28520,7 +30008,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <f>Сities!B209</f>
         <v>0</v>
       </c>
@@ -28563,7 +30051,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <f>Сities!B210</f>
         <v>0</v>
       </c>
@@ -28606,7 +30094,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <f>Сities!B211</f>
         <v>0</v>
       </c>
@@ -28649,7 +30137,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <f>Сities!B212</f>
         <v>0</v>
       </c>
@@ -28692,7 +30180,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <f>Сities!B213</f>
         <v>0</v>
       </c>
@@ -28735,7 +30223,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <f>Сities!B214</f>
         <v>0</v>
       </c>
@@ -28778,7 +30266,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <f>Сities!B215</f>
         <v>0</v>
       </c>
@@ -28821,7 +30309,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <f>Сities!B216</f>
         <v>0</v>
       </c>
@@ -28864,7 +30352,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <f>Сities!B217</f>
         <v>0</v>
       </c>
@@ -28907,7 +30395,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="1">
         <f>Сities!B218</f>
         <v>0</v>
       </c>
@@ -28950,7 +30438,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="1">
         <f>Сities!B219</f>
         <v>0</v>
       </c>
@@ -28993,7 +30481,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="1">
         <f>Сities!B220</f>
         <v>0</v>
       </c>
@@ -29036,7 +30524,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="1">
         <f>Сities!B221</f>
         <v>0</v>
       </c>
@@ -29079,7 +30567,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="1">
         <f>Сities!B222</f>
         <v>0</v>
       </c>
@@ -29122,7 +30610,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="1">
         <f>Сities!B223</f>
         <v>0</v>
       </c>
@@ -29165,7 +30653,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="1">
         <f>Сities!B224</f>
         <v>0</v>
       </c>
@@ -29208,7 +30696,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="1">
         <f>Сities!B225</f>
         <v>0</v>
       </c>
@@ -29251,7 +30739,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="1">
         <f>Сities!B226</f>
         <v>0</v>
       </c>
@@ -29294,7 +30782,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="1">
         <f>Сities!B227</f>
         <v>0</v>
       </c>
@@ -29337,7 +30825,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <f>Сities!B228</f>
         <v>0</v>
       </c>
@@ -29380,7 +30868,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="1">
         <f>Сities!B229</f>
         <v>0</v>
       </c>
@@ -29423,7 +30911,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <f>Сities!B230</f>
         <v>0</v>
       </c>
@@ -29466,7 +30954,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <f>Сities!B231</f>
         <v>0</v>
       </c>
@@ -29509,7 +30997,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <f>Сities!B232</f>
         <v>0</v>
       </c>
@@ -29552,7 +31040,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <f>Сities!B233</f>
         <v>0</v>
       </c>
@@ -29595,7 +31083,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <f>Сities!B234</f>
         <v>0</v>
       </c>
@@ -29638,7 +31126,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <f>Сities!B235</f>
         <v>0</v>
       </c>
@@ -29681,7 +31169,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <f>Сities!B236</f>
         <v>0</v>
       </c>
@@ -29724,7 +31212,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <f>Сities!B237</f>
         <v>0</v>
       </c>
@@ -29767,7 +31255,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <f>Сities!B238</f>
         <v>0</v>
       </c>
@@ -29810,7 +31298,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <f>Сities!B239</f>
         <v>0</v>
       </c>
@@ -29853,7 +31341,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <f>Сities!B240</f>
         <v>0</v>
       </c>
@@ -29896,7 +31384,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <f>Сities!B241</f>
         <v>0</v>
       </c>
@@ -29939,7 +31427,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <f>Сities!B242</f>
         <v>0</v>
       </c>
@@ -29982,7 +31470,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <f>Сities!B243</f>
         <v>0</v>
       </c>
@@ -30025,7 +31513,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <f>Сities!B244</f>
         <v>0</v>
       </c>
@@ -30068,7 +31556,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <f>Сities!B245</f>
         <v>0</v>
       </c>
@@ -30111,7 +31599,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <f>Сities!B246</f>
         <v>0</v>
       </c>
@@ -30154,7 +31642,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <f>Сities!B247</f>
         <v>0</v>
       </c>
@@ -30197,7 +31685,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <f>Сities!B248</f>
         <v>0</v>
       </c>
@@ -30240,7 +31728,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="1">
         <f>Сities!B249</f>
         <v>0</v>
       </c>
@@ -30283,7 +31771,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <f>Сities!B250</f>
         <v>0</v>
       </c>
@@ -30326,7 +31814,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <f>Сities!B251</f>
         <v>0</v>
       </c>
@@ -30369,7 +31857,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="1">
         <f>Сities!B252</f>
         <v>0</v>
       </c>
@@ -30412,7 +31900,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="1">
         <f>Сities!B253</f>
         <v>0</v>
       </c>
@@ -30455,7 +31943,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="1">
         <f>Сities!B254</f>
         <v>0</v>
       </c>
@@ -30498,7 +31986,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="1">
         <f>Сities!B255</f>
         <v>0</v>
       </c>
@@ -30541,7 +32029,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="1">
         <f>Сities!B256</f>
         <v>0</v>
       </c>
@@ -30584,7 +32072,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="1">
         <f>Сities!B257</f>
         <v>0</v>
       </c>
@@ -30627,7 +32115,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="1">
         <f>Сities!B258</f>
         <v>0</v>
       </c>
@@ -30670,7 +32158,7 @@
         <f t="shared" ref="C259:C322" si="25">E259+F259/60</f>
         <v>0</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="1">
         <f>Сities!B259</f>
         <v>0</v>
       </c>
@@ -30713,7 +32201,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="1">
         <f>Сities!B260</f>
         <v>0</v>
       </c>
@@ -30756,7 +32244,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="1">
         <f>Сities!B261</f>
         <v>0</v>
       </c>
@@ -30799,7 +32287,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="1">
         <f>Сities!B262</f>
         <v>0</v>
       </c>
@@ -30842,7 +32330,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="1">
         <f>Сities!B263</f>
         <v>0</v>
       </c>
@@ -30885,7 +32373,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="1">
         <f>Сities!B264</f>
         <v>0</v>
       </c>
@@ -30928,7 +32416,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="1">
         <f>Сities!B265</f>
         <v>0</v>
       </c>
@@ -30971,7 +32459,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="1">
         <f>Сities!B266</f>
         <v>0</v>
       </c>
@@ -31014,7 +32502,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="1">
         <f>Сities!B267</f>
         <v>0</v>
       </c>
@@ -31057,7 +32545,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="1">
         <f>Сities!B268</f>
         <v>0</v>
       </c>
@@ -31100,7 +32588,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="1">
         <f>Сities!B269</f>
         <v>0</v>
       </c>
@@ -31143,7 +32631,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="1">
         <f>Сities!B270</f>
         <v>0</v>
       </c>
@@ -31186,7 +32674,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="1">
         <f>Сities!B271</f>
         <v>0</v>
       </c>
@@ -31229,7 +32717,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="1">
         <f>Сities!B272</f>
         <v>0</v>
       </c>
@@ -31272,7 +32760,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="1">
         <f>Сities!B273</f>
         <v>0</v>
       </c>
@@ -31315,7 +32803,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="1">
         <f>Сities!B274</f>
         <v>0</v>
       </c>
